--- a/BackTest/2019-10-17 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-17 BackTest HDAC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.700000000000003</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-6.66666666666673</v>
+      </c>
       <c r="L12" t="n">
         <v>38.9</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.700000000000003</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>16.66666666666686</v>
+      </c>
       <c r="L13" t="n">
         <v>38.89</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.700000000000003</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>39.99999999999957</v>
+      </c>
       <c r="L14" t="n">
         <v>38.91000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.800000000000004</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>74.99999999999977</v>
+      </c>
       <c r="L15" t="n">
         <v>38.94000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.400000000000006</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-55.5555555555552</v>
+      </c>
       <c r="L16" t="n">
         <v>38.94000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.500000000000007</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-59.99999999999972</v>
+      </c>
       <c r="L17" t="n">
         <v>38.88000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.900000000000013</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-14.28571428571385</v>
+      </c>
       <c r="L18" t="n">
         <v>38.86000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.900000000000013</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-23.07692307692266</v>
+      </c>
       <c r="L19" t="n">
         <v>38.84000000000002</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>3.000000000000014</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-28.57142857142821</v>
+      </c>
       <c r="L20" t="n">
         <v>38.80000000000002</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3.100000000000016</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-42.85714285714256</v>
+      </c>
       <c r="L21" t="n">
         <v>38.75000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.400000000000013</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-52.94117647058785</v>
+      </c>
       <c r="L22" t="n">
         <v>38.66000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.400000000000013</v>
       </c>
       <c r="K23" t="n">
-        <v>-31.24999999999983</v>
+        <v>-52.94117647058785</v>
       </c>
       <c r="L23" t="n">
         <v>38.57000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>3.500000000000014</v>
       </c>
       <c r="K24" t="n">
-        <v>-26.66666666666644</v>
+        <v>-52.94117647058785</v>
       </c>
       <c r="L24" t="n">
         <v>38.47000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>3.600000000000016</v>
       </c>
       <c r="K25" t="n">
-        <v>-24.13793103448269</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L25" t="n">
         <v>38.37000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>3.700000000000017</v>
       </c>
       <c r="K26" t="n">
-        <v>-11.11111111111093</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L26" t="n">
         <v>38.34000000000002</v>
@@ -1613,7 +1635,7 @@
         <v>3.800000000000018</v>
       </c>
       <c r="K27" t="n">
-        <v>-30.43478260869522</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L27" t="n">
         <v>38.33000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>4.200000000000017</v>
       </c>
       <c r="K28" t="n">
-        <v>-11.11111111111093</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L28" t="n">
         <v>38.32000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>4.600000000000016</v>
       </c>
       <c r="K29" t="n">
-        <v>-22.58064516129007</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L29" t="n">
         <v>38.27000000000002</v>
@@ -1760,7 +1782,7 @@
         <v>4.600000000000016</v>
       </c>
       <c r="K30" t="n">
-        <v>-26.66666666666644</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L30" t="n">
         <v>38.23000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>4.900000000000013</v>
       </c>
       <c r="K31" t="n">
-        <v>-15.1515151515151</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L31" t="n">
         <v>38.23000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>5.000000000000014</v>
       </c>
       <c r="K32" t="n">
-        <v>-15.1515151515151</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L32" t="n">
         <v>38.27000000000002</v>
@@ -1911,7 +1933,7 @@
         <v>5.200000000000017</v>
       </c>
       <c r="K33" t="n">
-        <v>-20</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L33" t="n">
         <v>38.29000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>5.300000000000018</v>
       </c>
       <c r="K34" t="n">
-        <v>-22.22222222222224</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L34" t="n">
         <v>38.31000000000002</v>
@@ -2013,7 +2035,7 @@
         <v>5.400000000000013</v>
       </c>
       <c r="K35" t="n">
-        <v>-22.22222222222209</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L35" t="n">
         <v>38.33000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>5.500000000000014</v>
       </c>
       <c r="K36" t="n">
-        <v>-9.677419354838591</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L36" t="n">
         <v>38.33000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>5.900000000000013</v>
       </c>
       <c r="K37" t="n">
-        <v>-17.64705882352921</v>
+        <v>-52.94117647058828</v>
       </c>
       <c r="L37" t="n">
         <v>38.28000000000002</v>
@@ -2166,7 +2188,7 @@
         <v>6.000000000000007</v>
       </c>
       <c r="K38" t="n">
-        <v>-29.03225806451636</v>
+        <v>-28.57142857142915</v>
       </c>
       <c r="L38" t="n">
         <v>38.20000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>6.20000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>-21.21212121212131</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L39" t="n">
         <v>38.18000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>6.400000000000013</v>
       </c>
       <c r="K40" t="n">
-        <v>-23.52941176470602</v>
+        <v>-46.66666666666686</v>
       </c>
       <c r="L40" t="n">
         <v>38.14000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>6.400000000000013</v>
       </c>
       <c r="K41" t="n">
-        <v>-21.21212121212131</v>
+        <v>-57.14285714285751</v>
       </c>
       <c r="L41" t="n">
         <v>38.07000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>6.600000000000016</v>
       </c>
       <c r="K42" t="n">
-        <v>-6.250000000000083</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L42" t="n">
         <v>38.01000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>6.900000000000013</v>
       </c>
       <c r="K43" t="n">
-        <v>-14.28571428571428</v>
+        <v>-37.49999999999978</v>
       </c>
       <c r="L43" t="n">
         <v>37.94000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>7.000000000000014</v>
       </c>
       <c r="K44" t="n">
-        <v>-14.28571428571428</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L44" t="n">
         <v>37.87000000000002</v>
@@ -2523,7 +2545,7 @@
         <v>7.000000000000014</v>
       </c>
       <c r="K45" t="n">
-        <v>-11.7647058823529</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>37.81000000000002</v>
@@ -2574,7 +2596,7 @@
         <v>7.000000000000014</v>
       </c>
       <c r="K46" t="n">
-        <v>-15.15151515151517</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L46" t="n">
         <v>37.76000000000002</v>
@@ -2625,7 +2647,7 @@
         <v>7.000000000000014</v>
       </c>
       <c r="K47" t="n">
-        <v>-18.75000000000007</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L47" t="n">
         <v>37.75000000000002</v>
@@ -2676,7 +2698,7 @@
         <v>7.100000000000016</v>
       </c>
       <c r="K48" t="n">
-        <v>-37.93103448275869</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L48" t="n">
         <v>37.72000000000002</v>
@@ -2727,7 +2749,7 @@
         <v>7.100000000000016</v>
       </c>
       <c r="K49" t="n">
-        <v>-28.00000000000011</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L49" t="n">
         <v>37.67000000000002</v>
@@ -2778,7 +2800,7 @@
         <v>7.300000000000018</v>
       </c>
       <c r="K50" t="n">
-        <v>-33.33333333333351</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L50" t="n">
         <v>37.62000000000002</v>
@@ -2829,7 +2851,7 @@
         <v>7.600000000000016</v>
       </c>
       <c r="K51" t="n">
-        <v>-55.5555555555555</v>
+        <v>-100</v>
       </c>
       <c r="L51" t="n">
         <v>37.54000000000002</v>
@@ -2880,7 +2902,7 @@
         <v>8.000000000000014</v>
       </c>
       <c r="K52" t="n">
-        <v>-40.0000000000001</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L52" t="n">
         <v>37.48000000000002</v>
@@ -2931,7 +2953,7 @@
         <v>8.20000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>-39.99999999999995</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>37.43000000000002</v>
@@ -2982,7 +3004,7 @@
         <v>8.70000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>-17.64705882352929</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L54" t="n">
         <v>37.44000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>8.800000000000004</v>
       </c>
       <c r="K55" t="n">
-        <v>-11.76470588235314</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L55" t="n">
         <v>37.46000000000002</v>
@@ -3084,7 +3106,7 @@
         <v>9.100000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>-16.66666666666677</v>
+        <v>-4.761904761904859</v>
       </c>
       <c r="L56" t="n">
         <v>37.45000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>9.100000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>-6.250000000000111</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>37.44000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>9.100000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>-9.677419354838635</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>37.44000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>9.300000000000004</v>
       </c>
       <c r="K59" t="n">
-        <v>-9.677419354838635</v>
+        <v>20.00000000000043</v>
       </c>
       <c r="L59" t="n">
         <v>37.46000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>9.300000000000004</v>
       </c>
       <c r="K60" t="n">
-        <v>-3.44827586206878</v>
+        <v>41.17647058823574</v>
       </c>
       <c r="L60" t="n">
         <v>37.50000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>9.300000000000004</v>
       </c>
       <c r="K61" t="n">
-        <v>-3.44827586206878</v>
+        <v>23.07692307692358</v>
       </c>
       <c r="L61" t="n">
         <v>37.57000000000001</v>
@@ -3390,7 +3412,7 @@
         <v>9.300000000000004</v>
       </c>
       <c r="K62" t="n">
-        <v>-11.11111111111105</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L62" t="n">
         <v>37.60000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>9.400000000000006</v>
       </c>
       <c r="K63" t="n">
-        <v>-4.000000000000068</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L63" t="n">
         <v>37.64000000000001</v>
@@ -3492,7 +3514,7 @@
         <v>9.600000000000009</v>
       </c>
       <c r="K64" t="n">
-        <v>-7.692307692307819</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L64" t="n">
         <v>37.61000000000001</v>
@@ -3543,7 +3565,7 @@
         <v>9.70000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>-3.703703703703762</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>37.58000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>9.800000000000011</v>
       </c>
       <c r="K66" t="n">
-        <v>-7.142857142857252</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L66" t="n">
         <v>37.57000000000001</v>
@@ -3645,7 +3667,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>6.249999999999875</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L67" t="n">
         <v>37.60000000000001</v>
@@ -3696,7 +3718,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>9.677419354838635</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L68" t="n">
         <v>37.63000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>10.3</v>
       </c>
       <c r="K69" t="n">
-        <v>6.250000000000111</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>37.63000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>9.677419354838888</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L70" t="n">
         <v>37.62000000000001</v>
@@ -3849,7 +3871,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>3.030303030303082</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L71" t="n">
         <v>37.56000000000002</v>
@@ -3900,7 +3922,7 @@
         <v>11.1</v>
       </c>
       <c r="K72" t="n">
-        <v>-3.225806451612962</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L72" t="n">
         <v>37.52000000000002</v>
@@ -3951,7 +3973,7 @@
         <v>11.2</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>-12.49999999999983</v>
       </c>
       <c r="L73" t="n">
         <v>37.48000000000001</v>
@@ -4002,7 +4024,7 @@
         <v>11.2</v>
       </c>
       <c r="K74" t="n">
-        <v>-20.00000000000011</v>
+        <v>-20</v>
       </c>
       <c r="L74" t="n">
         <v>37.46000000000002</v>
@@ -4053,7 +4075,7 @@
         <v>11.3</v>
       </c>
       <c r="K75" t="n">
-        <v>-27.99999999999991</v>
+        <v>-20</v>
       </c>
       <c r="L75" t="n">
         <v>37.42000000000002</v>
@@ -4104,7 +4126,7 @@
         <v>11.4</v>
       </c>
       <c r="K76" t="n">
-        <v>-21.73913043478263</v>
+        <v>-66.66666666666707</v>
       </c>
       <c r="L76" t="n">
         <v>37.38000000000002</v>
@@ -4155,7 +4177,7 @@
         <v>11.7</v>
       </c>
       <c r="K77" t="n">
-        <v>-7.692307692307819</v>
+        <v>-33.33333333333365</v>
       </c>
       <c r="L77" t="n">
         <v>37.33000000000002</v>
@@ -4206,7 +4228,7 @@
         <v>11.99999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>-17.24137931034488</v>
+        <v>-41.17647058823574</v>
       </c>
       <c r="L78" t="n">
         <v>37.25000000000001</v>
@@ -4257,7 +4279,7 @@
         <v>12.2</v>
       </c>
       <c r="K79" t="n">
-        <v>-17.24137931034488</v>
+        <v>-22.22222222222226</v>
       </c>
       <c r="L79" t="n">
         <v>37.20000000000002</v>
@@ -4308,7 +4330,7 @@
         <v>12.29999999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>-13.33333333333359</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L80" t="n">
         <v>37.17000000000002</v>
@@ -4359,7 +4381,7 @@
         <v>12.39999999999998</v>
       </c>
       <c r="K81" t="n">
-        <v>-16.12903225806462</v>
+        <v>-7.692307692307356</v>
       </c>
       <c r="L81" t="n">
         <v>37.18000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>12.49999999999998</v>
       </c>
       <c r="K82" t="n">
-        <v>-12.50000000000028</v>
+        <v>7.692307692307356</v>
       </c>
       <c r="L82" t="n">
         <v>37.18000000000001</v>
@@ -4461,7 +4483,7 @@
         <v>12.49999999999998</v>
       </c>
       <c r="K83" t="n">
-        <v>-9.677419354838932</v>
+        <v>7.692307692307356</v>
       </c>
       <c r="L83" t="n">
         <v>37.19000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>12.59999999999998</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>23.07692307692316</v>
       </c>
       <c r="L84" t="n">
         <v>37.21000000000002</v>
@@ -4563,7 +4585,7 @@
         <v>12.69999999999998</v>
       </c>
       <c r="K85" t="n">
-        <v>-6.666666666666825</v>
+        <v>23.07692307692316</v>
       </c>
       <c r="L85" t="n">
         <v>37.23000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>12.79999999999998</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>9.090909090909326</v>
       </c>
       <c r="L86" t="n">
         <v>37.27000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>12.89999999999998</v>
       </c>
       <c r="K87" t="n">
-        <v>-18.5185185185187</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>37.27000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K88" t="n">
-        <v>-14.28571428571436</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L88" t="n">
         <v>37.31000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>-7.142857142857288</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L89" t="n">
         <v>37.34000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>-3.703703703703782</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L90" t="n">
         <v>37.36000000000001</v>
@@ -4869,7 +4891,7 @@
         <v>13.19999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>13.04347826086954</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L91" t="n">
         <v>37.38000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>13.29999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>9.090909090909268</v>
+        <v>25</v>
       </c>
       <c r="L92" t="n">
         <v>37.40000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>13.39999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>18.18181818181815</v>
+        <v>25</v>
       </c>
       <c r="L93" t="n">
         <v>37.43000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>13.39999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>18.18181818181815</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L94" t="n">
         <v>37.45000000000001</v>
@@ -5073,7 +5095,7 @@
         <v>13.59999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>13.04347826086946</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>37.46000000000001</v>
@@ -5124,7 +5146,7 @@
         <v>13.7</v>
       </c>
       <c r="K96" t="n">
-        <v>21.73913043478263</v>
+        <v>25</v>
       </c>
       <c r="L96" t="n">
         <v>37.47000000000001</v>
@@ -5175,7 +5197,7 @@
         <v>13.7</v>
       </c>
       <c r="K97" t="n">
-        <v>10.00000000000014</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L97" t="n">
         <v>37.49000000000001</v>
@@ -5226,7 +5248,7 @@
         <v>13.7</v>
       </c>
       <c r="K98" t="n">
-        <v>29.41176470588231</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>37.50000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>13.7</v>
       </c>
       <c r="K99" t="n">
-        <v>19.99999999999981</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>37.50000000000001</v>
@@ -5328,7 +5350,7 @@
         <v>13.8</v>
       </c>
       <c r="K100" t="n">
-        <v>20.00000000000019</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L100" t="n">
         <v>37.51000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>13.8</v>
       </c>
       <c r="K101" t="n">
-        <v>28.57142857142821</v>
+        <v>20</v>
       </c>
       <c r="L101" t="n">
         <v>37.53000000000002</v>
@@ -5430,7 +5452,7 @@
         <v>13.8</v>
       </c>
       <c r="K102" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>37.54000000000002</v>
@@ -5481,7 +5503,7 @@
         <v>14</v>
       </c>
       <c r="K103" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L103" t="n">
         <v>37.52000000000002</v>
@@ -5583,7 +5605,7 @@
         <v>14</v>
       </c>
       <c r="K105" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L105" t="n">
         <v>37.50000000000001</v>
@@ -5634,7 +5656,7 @@
         <v>14.1</v>
       </c>
       <c r="K106" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L106" t="n">
         <v>37.48000000000001</v>
@@ -5685,7 +5707,7 @@
         <v>14.3</v>
       </c>
       <c r="K107" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>37.48000000000001</v>
@@ -5736,7 +5758,7 @@
         <v>14.3</v>
       </c>
       <c r="K108" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>37.48000000000001</v>
@@ -5787,7 +5809,7 @@
         <v>14.6</v>
       </c>
       <c r="K109" t="n">
-        <v>-19.99999999999962</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L109" t="n">
         <v>37.45000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>14.8</v>
       </c>
       <c r="K110" t="n">
-        <v>-5.88235294117652</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L110" t="n">
         <v>37.43000000000001</v>
@@ -5889,7 +5911,7 @@
         <v>14.99999999999999</v>
       </c>
       <c r="K111" t="n">
-        <v>-11.11111111111085</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>37.39</v>
@@ -5940,7 +5962,7 @@
         <v>15.19999999999999</v>
       </c>
       <c r="K112" t="n">
-        <v>-5.263157894736921</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>37.37</v>
@@ -5991,7 +6013,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K113" t="n">
-        <v>-20</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L113" t="n">
         <v>37.35</v>
@@ -6042,7 +6064,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K114" t="n">
-        <v>-20</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L114" t="n">
         <v>37.33</v>
@@ -6093,7 +6115,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K115" t="n">
-        <v>-11.11111111111093</v>
+        <v>-7.692307692307356</v>
       </c>
       <c r="L115" t="n">
         <v>37.31</v>
@@ -6144,7 +6166,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K116" t="n">
-        <v>-17.64705882352936</v>
+        <v>-27.27272727272751</v>
       </c>
       <c r="L116" t="n">
         <v>37.3</v>
@@ -6195,7 +6217,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K117" t="n">
-        <v>-5.263157894736961</v>
+        <v>-7.692307692307944</v>
       </c>
       <c r="L117" t="n">
         <v>37.29</v>
@@ -6246,7 +6268,7 @@
         <v>15.79999999999998</v>
       </c>
       <c r="K118" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>37.26</v>
@@ -6297,7 +6319,7 @@
         <v>15.79999999999998</v>
       </c>
       <c r="K119" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L119" t="n">
         <v>37.26</v>
@@ -6348,7 +6370,7 @@
         <v>15.99999999999997</v>
       </c>
       <c r="K120" t="n">
-        <v>-9.090909090909326</v>
+        <v>20</v>
       </c>
       <c r="L120" t="n">
         <v>37.26</v>
@@ -6399,7 +6421,7 @@
         <v>15.99999999999997</v>
       </c>
       <c r="K121" t="n">
-        <v>-9.090909090909326</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>37.27999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>15.99999999999997</v>
       </c>
       <c r="K122" t="n">
-        <v>-9.090909090909326</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>37.27999999999999</v>
@@ -6501,7 +6523,7 @@
         <v>15.99999999999997</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L123" t="n">
         <v>37.3</v>
@@ -6552,7 +6574,7 @@
         <v>16.09999999999997</v>
       </c>
       <c r="K124" t="n">
-        <v>-4.761904761904891</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L124" t="n">
         <v>37.31</v>
@@ -6603,7 +6625,7 @@
         <v>16.09999999999997</v>
       </c>
       <c r="K125" t="n">
-        <v>-4.761904761904891</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L125" t="n">
         <v>37.32</v>
@@ -6654,7 +6676,7 @@
         <v>16.09999999999997</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L126" t="n">
         <v>37.33</v>
@@ -6705,7 +6727,7 @@
         <v>16.29999999999997</v>
       </c>
       <c r="K127" t="n">
-        <v>-20.00000000000028</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L127" t="n">
         <v>37.3</v>
@@ -6756,7 +6778,7 @@
         <v>16.49999999999996</v>
       </c>
       <c r="K128" t="n">
-        <v>-9.090909090909385</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L128" t="n">
         <v>37.31000000000001</v>
@@ -6807,7 +6829,7 @@
         <v>16.49999999999996</v>
       </c>
       <c r="K129" t="n">
-        <v>5.263157894736645</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L129" t="n">
         <v>37.32000000000001</v>
@@ -6858,7 +6880,7 @@
         <v>16.69999999999996</v>
       </c>
       <c r="K130" t="n">
-        <v>-15.78947368421068</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L130" t="n">
         <v>37.29000000000001</v>
@@ -6909,7 +6931,7 @@
         <v>16.79999999999996</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L131" t="n">
         <v>37.27000000000002</v>
@@ -6960,7 +6982,7 @@
         <v>16.79999999999996</v>
       </c>
       <c r="K132" t="n">
-        <v>-12.49999999999994</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L132" t="n">
         <v>37.25000000000001</v>
@@ -7011,7 +7033,7 @@
         <v>16.99999999999996</v>
       </c>
       <c r="K133" t="n">
-        <v>-12.50000000000033</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L133" t="n">
         <v>37.21000000000002</v>
@@ -7062,7 +7084,7 @@
         <v>17.09999999999997</v>
       </c>
       <c r="K134" t="n">
-        <v>-17.64705882352985</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L134" t="n">
         <v>37.17000000000002</v>
@@ -7113,7 +7135,7 @@
         <v>17.29999999999997</v>
       </c>
       <c r="K135" t="n">
-        <v>-5.263157894736961</v>
+        <v>-16.66666666666637</v>
       </c>
       <c r="L135" t="n">
         <v>37.15000000000002</v>
@@ -7164,7 +7186,7 @@
         <v>17.49999999999997</v>
       </c>
       <c r="K136" t="n">
-        <v>-14.28571428571458</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L136" t="n">
         <v>37.11000000000001</v>
@@ -7215,7 +7237,7 @@
         <v>17.49999999999997</v>
       </c>
       <c r="K137" t="n">
-        <v>-26.31578947368433</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L137" t="n">
         <v>37.09000000000001</v>
@@ -7266,7 +7288,7 @@
         <v>17.49999999999997</v>
       </c>
       <c r="K138" t="n">
-        <v>-17.64705882352971</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L138" t="n">
         <v>37.05</v>
@@ -7317,7 +7339,7 @@
         <v>17.69999999999997</v>
       </c>
       <c r="K139" t="n">
-        <v>-5.263157894736921</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>37.03000000000001</v>
@@ -7368,7 +7390,7 @@
         <v>17.89999999999998</v>
       </c>
       <c r="K140" t="n">
-        <v>-26.31578947368413</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L140" t="n">
         <v>37.01000000000001</v>
@@ -7423,7 +7445,7 @@
         <v>18.09999999999997</v>
       </c>
       <c r="K141" t="n">
-        <v>-33.33333333333311</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L141" t="n">
         <v>36.96</v>
@@ -7480,7 +7502,7 @@
         <v>18.09999999999997</v>
       </c>
       <c r="K142" t="n">
-        <v>-33.33333333333311</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L142" t="n">
         <v>36.91</v>
@@ -7537,7 +7559,7 @@
         <v>18.19999999999997</v>
       </c>
       <c r="K143" t="n">
-        <v>-27.27272727272739</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L143" t="n">
         <v>36.89</v>
@@ -7594,7 +7616,7 @@
         <v>18.19999999999997</v>
       </c>
       <c r="K144" t="n">
-        <v>-23.80952380952387</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L144" t="n">
         <v>36.88000000000001</v>
@@ -7651,7 +7673,7 @@
         <v>18.19999999999997</v>
       </c>
       <c r="K145" t="n">
-        <v>-23.80952380952387</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L145" t="n">
         <v>36.85000000000001</v>
@@ -7708,7 +7730,7 @@
         <v>18.39999999999996</v>
       </c>
       <c r="K146" t="n">
-        <v>-30.4347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>36.82000000000001</v>
@@ -7765,7 +7787,7 @@
         <v>18.59999999999996</v>
       </c>
       <c r="K147" t="n">
-        <v>-13.04347826086981</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L147" t="n">
         <v>36.81000000000002</v>
@@ -7822,7 +7844,7 @@
         <v>18.79999999999995</v>
       </c>
       <c r="K148" t="n">
-        <v>-30.4347826086956</v>
+        <v>-45.45454545454628</v>
       </c>
       <c r="L148" t="n">
         <v>36.78000000000002</v>
@@ -7879,7 +7901,7 @@
         <v>18.79999999999995</v>
       </c>
       <c r="K149" t="n">
-        <v>-30.4347826086956</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L149" t="n">
         <v>36.73000000000002</v>
@@ -7936,7 +7958,7 @@
         <v>18.99999999999995</v>
       </c>
       <c r="K150" t="n">
-        <v>-13.04347826086981</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L150" t="n">
         <v>36.72000000000002</v>
@@ -7993,7 +8015,7 @@
         <v>19.19999999999995</v>
       </c>
       <c r="K151" t="n">
-        <v>-25.00000000000022</v>
+        <v>-9.090909090909443</v>
       </c>
       <c r="L151" t="n">
         <v>36.71000000000002</v>
@@ -8050,7 +8072,7 @@
         <v>19.59999999999994</v>
       </c>
       <c r="K152" t="n">
-        <v>-7.142857142857288</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L152" t="n">
         <v>36.74000000000002</v>
@@ -8107,7 +8129,7 @@
         <v>19.59999999999994</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L153" t="n">
         <v>36.76000000000003</v>
@@ -8164,7 +8186,7 @@
         <v>19.59999999999994</v>
       </c>
       <c r="K154" t="n">
-        <v>4.000000000000091</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L154" t="n">
         <v>36.78000000000002</v>
@@ -8221,7 +8243,7 @@
         <v>19.99999999999994</v>
       </c>
       <c r="K155" t="n">
-        <v>-18.5185185185187</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>36.76000000000003</v>
@@ -8278,7 +8300,7 @@
         <v>20.09999999999994</v>
       </c>
       <c r="K156" t="n">
-        <v>-7.692307692307608</v>
+        <v>-6.666666666666352</v>
       </c>
       <c r="L156" t="n">
         <v>36.77000000000002</v>
@@ -8335,7 +8357,7 @@
         <v>20.19999999999995</v>
       </c>
       <c r="K157" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>36.75000000000002</v>
@@ -8392,7 +8414,7 @@
         <v>20.29999999999995</v>
       </c>
       <c r="K158" t="n">
-        <v>-7.142857142857053</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L158" t="n">
         <v>36.76000000000002</v>
@@ -8449,7 +8471,7 @@
         <v>20.39999999999995</v>
       </c>
       <c r="K159" t="n">
-        <v>-18.5185185185187</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L159" t="n">
         <v>36.76000000000002</v>
@@ -8506,7 +8528,7 @@
         <v>20.39999999999995</v>
       </c>
       <c r="K160" t="n">
-        <v>-12.00000000000002</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>36.74000000000002</v>
@@ -8557,7 +8579,7 @@
         <v>20.69999999999995</v>
       </c>
       <c r="K161" t="n">
-        <v>-15.38461538461572</v>
+        <v>-63.6363636363634</v>
       </c>
       <c r="L161" t="n">
         <v>36.71000000000002</v>
@@ -8608,7 +8630,7 @@
         <v>20.99999999999996</v>
       </c>
       <c r="K162" t="n">
-        <v>-3.448275862069033</v>
+        <v>-28.57142857142821</v>
       </c>
       <c r="L162" t="n">
         <v>36.67000000000002</v>
@@ -8659,7 +8681,7 @@
         <v>21.19999999999996</v>
       </c>
       <c r="K163" t="n">
-        <v>-13.33333333333332</v>
+        <v>-37.49999999999972</v>
       </c>
       <c r="L163" t="n">
         <v>36.61000000000002</v>
@@ -8710,7 +8732,7 @@
         <v>21.29999999999996</v>
       </c>
       <c r="K164" t="n">
-        <v>-9.677419354838635</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L164" t="n">
         <v>36.56000000000002</v>
@@ -8761,7 +8783,7 @@
         <v>21.49999999999996</v>
       </c>
       <c r="K165" t="n">
-        <v>-15.15151515151517</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L165" t="n">
         <v>36.53000000000002</v>
@@ -8812,7 +8834,7 @@
         <v>21.69999999999997</v>
       </c>
       <c r="K166" t="n">
-        <v>-3.03030303030307</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L166" t="n">
         <v>36.51000000000002</v>
@@ -8863,7 +8885,7 @@
         <v>21.99999999999996</v>
       </c>
       <c r="K167" t="n">
-        <v>-17.64705882352921</v>
+        <v>-29.41176470588206</v>
       </c>
       <c r="L167" t="n">
         <v>36.47000000000001</v>
@@ -8914,7 +8936,7 @@
         <v>22.19999999999996</v>
       </c>
       <c r="K168" t="n">
-        <v>-5.882352941176544</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L168" t="n">
         <v>36.44000000000001</v>
@@ -9016,7 +9038,7 @@
         <v>22.69999999999997</v>
       </c>
       <c r="K170" t="n">
-        <v>-13.51351351351345</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>36.41000000000001</v>
@@ -9067,7 +9089,7 @@
         <v>22.79999999999997</v>
       </c>
       <c r="K171" t="n">
-        <v>-5.5555555555556</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L171" t="n">
         <v>36.42000000000001</v>
@@ -9118,7 +9140,7 @@
         <v>22.89999999999997</v>
       </c>
       <c r="K172" t="n">
-        <v>-15.15151515151504</v>
+        <v>5.88235294117652</v>
       </c>
       <c r="L172" t="n">
         <v>36.41000000000001</v>
@@ -9169,7 +9191,7 @@
         <v>23.19999999999997</v>
       </c>
       <c r="K173" t="n">
-        <v>-22.222222222222</v>
+        <v>-15.78947368421033</v>
       </c>
       <c r="L173" t="n">
         <v>36.39000000000001</v>
@@ -9220,7 +9242,7 @@
         <v>23.19999999999997</v>
       </c>
       <c r="K174" t="n">
-        <v>-22.222222222222</v>
+        <v>-5.882352941176126</v>
       </c>
       <c r="L174" t="n">
         <v>36.36000000000001</v>
@@ -9271,7 +9293,7 @@
         <v>23.19999999999997</v>
       </c>
       <c r="K175" t="n">
-        <v>-12.49999999999986</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L175" t="n">
         <v>36.35000000000001</v>
@@ -9322,7 +9344,7 @@
         <v>23.29999999999996</v>
       </c>
       <c r="K176" t="n">
-        <v>-12.50000000000011</v>
+        <v>7.692307692307272</v>
       </c>
       <c r="L176" t="n">
         <v>36.33000000000001</v>
@@ -9373,7 +9395,7 @@
         <v>23.49999999999996</v>
       </c>
       <c r="K177" t="n">
-        <v>-3.030303030303056</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L177" t="n">
         <v>36.36000000000001</v>
@@ -9424,7 +9446,7 @@
         <v>23.69999999999997</v>
       </c>
       <c r="K178" t="n">
-        <v>-11.76470588235304</v>
+        <v>-23.07692307692333</v>
       </c>
       <c r="L178" t="n">
         <v>36.35000000000001</v>
@@ -9475,7 +9497,7 @@
         <v>23.89999999999997</v>
       </c>
       <c r="K179" t="n">
-        <v>-2.85714285714288</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L179" t="n">
         <v>36.34000000000001</v>
@@ -9526,7 +9548,7 @@
         <v>23.89999999999997</v>
       </c>
       <c r="K180" t="n">
-        <v>-2.85714285714288</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L180" t="n">
         <v>36.36000000000001</v>
@@ -9577,7 +9599,7 @@
         <v>23.89999999999997</v>
       </c>
       <c r="K181" t="n">
-        <v>6.250000000000055</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>36.37000000000001</v>
@@ -9628,7 +9650,7 @@
         <v>24.09999999999997</v>
       </c>
       <c r="K182" t="n">
-        <v>-9.677419354838799</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L182" t="n">
         <v>36.35000000000001</v>
@@ -9679,7 +9701,7 @@
         <v>24.29999999999998</v>
       </c>
       <c r="K183" t="n">
-        <v>3.225806451612933</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L183" t="n">
         <v>36.38000000000001</v>
@@ -9730,7 +9752,7 @@
         <v>24.39999999999998</v>
       </c>
       <c r="K184" t="n">
-        <v>-3.225806451612933</v>
+        <v>16.66666666666617</v>
       </c>
       <c r="L184" t="n">
         <v>36.40000000000001</v>
@@ -9883,7 +9905,7 @@
         <v>24.69999999999998</v>
       </c>
       <c r="K187" t="n">
-        <v>11.11111111111093</v>
+        <v>20</v>
       </c>
       <c r="L187" t="n">
         <v>36.43000000000001</v>
@@ -9934,7 +9956,7 @@
         <v>24.69999999999998</v>
       </c>
       <c r="K188" t="n">
-        <v>4.000000000000023</v>
+        <v>0</v>
       </c>
       <c r="L188" t="n">
         <v>36.45000000000001</v>
@@ -9985,7 +10007,7 @@
         <v>24.89999999999998</v>
       </c>
       <c r="K189" t="n">
-        <v>4.000000000000023</v>
+        <v>20</v>
       </c>
       <c r="L189" t="n">
         <v>36.47000000000001</v>
@@ -10036,7 +10058,7 @@
         <v>25.09999999999998</v>
       </c>
       <c r="K190" t="n">
-        <v>24.99999999999993</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L190" t="n">
         <v>36.51000000000001</v>
@@ -10087,7 +10109,7 @@
         <v>25.59999999999998</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L191" t="n">
         <v>36.50000000000001</v>
@@ -10189,7 +10211,7 @@
         <v>25.69999999999998</v>
       </c>
       <c r="K193" t="n">
-        <v>11.99999999999982</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L193" t="n">
         <v>36.52</v>
@@ -10240,7 +10262,7 @@
         <v>25.79999999999998</v>
       </c>
       <c r="K194" t="n">
-        <v>7.692307692307482</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L194" t="n">
         <v>36.52</v>
@@ -10291,7 +10313,7 @@
         <v>25.79999999999998</v>
       </c>
       <c r="K195" t="n">
-        <v>7.692307692307482</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L195" t="n">
         <v>36.53</v>
@@ -10342,7 +10364,7 @@
         <v>25.79999999999998</v>
       </c>
       <c r="K196" t="n">
-        <v>4.000000000000023</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L196" t="n">
         <v>36.52</v>
@@ -10393,7 +10415,7 @@
         <v>25.79999999999998</v>
       </c>
       <c r="K197" t="n">
-        <v>-4.347826086956549</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L197" t="n">
         <v>36.51</v>
@@ -10444,7 +10466,7 @@
         <v>25.79999999999998</v>
       </c>
       <c r="K198" t="n">
-        <v>4.761904761904794</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L198" t="n">
         <v>36.49999999999999</v>
@@ -10495,7 +10517,7 @@
         <v>25.89999999999998</v>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L199" t="n">
         <v>36.48</v>
@@ -10546,7 +10568,7 @@
         <v>25.99999999999999</v>
       </c>
       <c r="K200" t="n">
-        <v>-4.761904761904794</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>36.42999999999999</v>
@@ -10597,7 +10619,7 @@
         <v>25.99999999999999</v>
       </c>
       <c r="K201" t="n">
-        <v>-4.761904761904794</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L201" t="n">
         <v>36.42999999999999</v>
@@ -10648,7 +10670,7 @@
         <v>25.99999999999999</v>
       </c>
       <c r="K202" t="n">
-        <v>5.263157894736882</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L202" t="n">
         <v>36.41999999999999</v>
@@ -10699,7 +10721,7 @@
         <v>26.19999999999999</v>
       </c>
       <c r="K203" t="n">
-        <v>5.263157894736882</v>
+        <v>50</v>
       </c>
       <c r="L203" t="n">
         <v>36.42999999999999</v>
@@ -10750,7 +10772,7 @@
         <v>26.49999999999999</v>
       </c>
       <c r="K204" t="n">
-        <v>-4.761904761904794</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L204" t="n">
         <v>36.42</v>
@@ -10801,7 +10823,7 @@
         <v>26.7</v>
       </c>
       <c r="K205" t="n">
-        <v>9.09090909090915</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L205" t="n">
         <v>36.43</v>
@@ -10852,7 +10874,7 @@
         <v>26.8</v>
       </c>
       <c r="K206" t="n">
-        <v>-4.761904761904794</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
         <v>36.43</v>
@@ -10903,7 +10925,7 @@
         <v>26.8</v>
       </c>
       <c r="K207" t="n">
-        <v>-4.761904761904794</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>36.43</v>
@@ -10954,7 +10976,7 @@
         <v>26.8</v>
       </c>
       <c r="K208" t="n">
-        <v>-4.761904761904794</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L208" t="n">
         <v>36.43</v>
@@ -11005,7 +11027,7 @@
         <v>26.8</v>
       </c>
       <c r="K209" t="n">
-        <v>-15.78947368421064</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>36.42</v>
@@ -11056,7 +11078,7 @@
         <v>26.8</v>
       </c>
       <c r="K210" t="n">
-        <v>-29.41176470588206</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>36.42</v>
@@ -11158,7 +11180,7 @@
         <v>26.9</v>
       </c>
       <c r="K212" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L212" t="n">
         <v>36.43</v>
@@ -11209,7 +11231,7 @@
         <v>26.9</v>
       </c>
       <c r="K213" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L213" t="n">
         <v>36.42</v>
@@ -11260,7 +11282,7 @@
         <v>26.9</v>
       </c>
       <c r="K214" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
         <v>36.44</v>
@@ -11311,7 +11333,7 @@
         <v>26.9</v>
       </c>
       <c r="K215" t="n">
-        <v>9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L215" t="n">
         <v>36.44</v>
@@ -11362,7 +11384,7 @@
         <v>26.9</v>
       </c>
       <c r="K216" t="n">
-        <v>9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L216" t="n">
         <v>36.45</v>
@@ -11413,7 +11435,7 @@
         <v>27</v>
       </c>
       <c r="K217" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L217" t="n">
         <v>36.47000000000001</v>
@@ -11464,7 +11486,7 @@
         <v>27</v>
       </c>
       <c r="K218" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L218" t="n">
         <v>36.49000000000001</v>
@@ -11515,7 +11537,7 @@
         <v>27.1</v>
       </c>
       <c r="K219" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L219" t="n">
         <v>36.52000000000001</v>
@@ -11566,7 +11588,7 @@
         <v>27.1</v>
       </c>
       <c r="K220" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L220" t="n">
         <v>36.55000000000001</v>
@@ -11617,7 +11639,7 @@
         <v>27.3</v>
       </c>
       <c r="K221" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>36.56000000000002</v>
@@ -11668,7 +11690,7 @@
         <v>27.50000000000001</v>
       </c>
       <c r="K222" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L222" t="n">
         <v>36.58000000000001</v>
@@ -11719,7 +11741,7 @@
         <v>27.70000000000001</v>
       </c>
       <c r="K223" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>36.58000000000001</v>
@@ -11770,7 +11792,7 @@
         <v>27.90000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L224" t="n">
         <v>36.60000000000001</v>
@@ -11821,7 +11843,7 @@
         <v>27.90000000000001</v>
       </c>
       <c r="K225" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L225" t="n">
         <v>36.62000000000001</v>
@@ -11872,7 +11894,7 @@
         <v>27.90000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>27.27272727272727</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L226" t="n">
         <v>36.64000000000001</v>
@@ -11923,7 +11945,7 @@
         <v>28.10000000000002</v>
       </c>
       <c r="K227" t="n">
-        <v>7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L227" t="n">
         <v>36.63000000000001</v>
@@ -11974,7 +11996,7 @@
         <v>28.30000000000002</v>
       </c>
       <c r="K228" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>36.64</v>
@@ -12025,7 +12047,7 @@
         <v>28.30000000000002</v>
       </c>
       <c r="K229" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>36.64</v>
@@ -12127,7 +12149,7 @@
         <v>28.30000000000002</v>
       </c>
       <c r="K231" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>36.66</v>
@@ -12178,7 +12200,7 @@
         <v>28.30000000000002</v>
       </c>
       <c r="K232" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L232" t="n">
         <v>36.66</v>
@@ -12229,7 +12251,7 @@
         <v>28.50000000000002</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L233" t="n">
         <v>36.66</v>
@@ -12280,7 +12302,7 @@
         <v>28.70000000000002</v>
       </c>
       <c r="K234" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
         <v>36.66</v>
@@ -12331,7 +12353,7 @@
         <v>28.90000000000003</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L235" t="n">
         <v>36.64</v>
@@ -12382,7 +12404,7 @@
         <v>29.10000000000003</v>
       </c>
       <c r="K236" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L236" t="n">
         <v>36.64</v>
@@ -12433,7 +12455,7 @@
         <v>29.10000000000003</v>
       </c>
       <c r="K237" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>36.66</v>
@@ -12484,7 +12506,7 @@
         <v>29.10000000000003</v>
       </c>
       <c r="K238" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>36.66</v>
@@ -12535,7 +12557,7 @@
         <v>29.20000000000003</v>
       </c>
       <c r="K239" t="n">
-        <v>-4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L239" t="n">
         <v>36.65000000000001</v>
@@ -12586,7 +12608,7 @@
         <v>29.30000000000003</v>
       </c>
       <c r="K240" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L240" t="n">
         <v>36.63000000000001</v>
@@ -12637,7 +12659,7 @@
         <v>29.50000000000004</v>
       </c>
       <c r="K241" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L241" t="n">
         <v>36.63000000000001</v>
@@ -12688,7 +12710,7 @@
         <v>29.50000000000004</v>
       </c>
       <c r="K242" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L242" t="n">
         <v>36.63000000000001</v>
@@ -12739,7 +12761,7 @@
         <v>29.70000000000004</v>
       </c>
       <c r="K243" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L243" t="n">
         <v>36.63000000000001</v>
@@ -12790,7 +12812,7 @@
         <v>29.90000000000004</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L244" t="n">
         <v>36.63000000000001</v>
@@ -12841,7 +12863,7 @@
         <v>30.10000000000004</v>
       </c>
       <c r="K245" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L245" t="n">
         <v>36.63000000000001</v>
@@ -12892,7 +12914,7 @@
         <v>30.20000000000005</v>
       </c>
       <c r="K246" t="n">
-        <v>-13.04347826086956</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L246" t="n">
         <v>36.60000000000001</v>
@@ -12943,7 +12965,7 @@
         <v>30.50000000000005</v>
       </c>
       <c r="K247" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L247" t="n">
         <v>36.60000000000001</v>
@@ -12994,7 +13016,7 @@
         <v>30.50000000000005</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L248" t="n">
         <v>36.60000000000001</v>
@@ -13045,7 +13067,7 @@
         <v>30.50000000000005</v>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L249" t="n">
         <v>36.61</v>
@@ -13147,7 +13169,7 @@
         <v>30.70000000000005</v>
       </c>
       <c r="K251" t="n">
-        <v>-8.333333333333332</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L251" t="n">
         <v>36.61</v>
@@ -13198,7 +13220,7 @@
         <v>30.90000000000006</v>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L252" t="n">
         <v>36.61</v>
@@ -13249,7 +13271,7 @@
         <v>30.90000000000006</v>
       </c>
       <c r="K253" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>36.63</v>
@@ -13300,7 +13322,7 @@
         <v>30.90000000000006</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L254" t="n">
         <v>36.63</v>
@@ -13351,7 +13373,7 @@
         <v>30.90000000000006</v>
       </c>
       <c r="K255" t="n">
-        <v>10</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L255" t="n">
         <v>36.65</v>
@@ -13453,7 +13475,7 @@
         <v>31.20000000000006</v>
       </c>
       <c r="K257" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L257" t="n">
         <v>36.65</v>
@@ -13504,7 +13526,7 @@
         <v>31.30000000000006</v>
       </c>
       <c r="K258" t="n">
-        <v>-9.090909090909092</v>
+        <v>-25</v>
       </c>
       <c r="L258" t="n">
         <v>36.63</v>
@@ -13555,7 +13577,7 @@
         <v>31.40000000000006</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L259" t="n">
         <v>36.62</v>
@@ -13606,7 +13628,7 @@
         <v>31.40000000000006</v>
       </c>
       <c r="K260" t="n">
-        <v>4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L260" t="n">
         <v>36.61000000000001</v>
@@ -13657,7 +13679,7 @@
         <v>31.50000000000006</v>
       </c>
       <c r="K261" t="n">
-        <v>-10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L261" t="n">
         <v>36.61000000000001</v>
@@ -13708,7 +13730,7 @@
         <v>31.50000000000006</v>
       </c>
       <c r="K262" t="n">
-        <v>-10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L262" t="n">
         <v>36.59000000000001</v>
@@ -13759,7 +13781,7 @@
         <v>31.50000000000006</v>
       </c>
       <c r="K263" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L263" t="n">
         <v>36.57000000000001</v>
@@ -13810,7 +13832,7 @@
         <v>31.50000000000006</v>
       </c>
       <c r="K264" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L264" t="n">
         <v>36.55000000000001</v>
@@ -13861,7 +13883,7 @@
         <v>31.70000000000007</v>
       </c>
       <c r="K265" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>36.55000000000001</v>
@@ -13912,7 +13934,7 @@
         <v>31.80000000000007</v>
       </c>
       <c r="K266" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L266" t="n">
         <v>36.54000000000001</v>
@@ -13963,7 +13985,7 @@
         <v>32.20000000000007</v>
       </c>
       <c r="K267" t="n">
-        <v>-29.41176470588206</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L267" t="n">
         <v>36.52000000000002</v>
@@ -14014,7 +14036,7 @@
         <v>32.50000000000006</v>
       </c>
       <c r="K268" t="n">
-        <v>-10.00000000000007</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L268" t="n">
         <v>36.52000000000002</v>
@@ -14065,7 +14087,7 @@
         <v>32.70000000000007</v>
       </c>
       <c r="K269" t="n">
-        <v>-18.1818181818183</v>
+        <v>-23.07692307692333</v>
       </c>
       <c r="L269" t="n">
         <v>36.49000000000002</v>
@@ -14116,7 +14138,7 @@
         <v>32.90000000000007</v>
       </c>
       <c r="K270" t="n">
-        <v>-8.333333333333384</v>
+        <v>0</v>
       </c>
       <c r="L270" t="n">
         <v>36.48000000000001</v>
@@ -14167,7 +14189,7 @@
         <v>33.10000000000007</v>
       </c>
       <c r="K271" t="n">
-        <v>-8.333333333333384</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L271" t="n">
         <v>36.46000000000002</v>
@@ -14218,7 +14240,7 @@
         <v>33.30000000000008</v>
       </c>
       <c r="K272" t="n">
-        <v>-8.333333333333384</v>
+        <v>0</v>
       </c>
       <c r="L272" t="n">
         <v>36.46000000000002</v>
@@ -14269,7 +14291,7 @@
         <v>33.50000000000008</v>
       </c>
       <c r="K273" t="n">
-        <v>-15.38461538461547</v>
+        <v>-10.00000000000007</v>
       </c>
       <c r="L273" t="n">
         <v>36.44000000000001</v>
@@ -14320,7 +14342,7 @@
         <v>33.60000000000008</v>
       </c>
       <c r="K274" t="n">
-        <v>-11.11111111111117</v>
+        <v>-15.78947368421064</v>
       </c>
       <c r="L274" t="n">
         <v>36.43000000000001</v>
@@ -14371,7 +14393,7 @@
         <v>33.70000000000008</v>
       </c>
       <c r="K275" t="n">
-        <v>-7.142857142857179</v>
+        <v>-5.263157894736882</v>
       </c>
       <c r="L275" t="n">
         <v>36.41000000000001</v>
@@ -14422,7 +14444,7 @@
         <v>33.80000000000008</v>
       </c>
       <c r="K276" t="n">
-        <v>-10.34482758620695</v>
+        <v>12.49999999999961</v>
       </c>
       <c r="L276" t="n">
         <v>36.39000000000001</v>
@@ -14473,7 +14495,7 @@
         <v>33.80000000000008</v>
       </c>
       <c r="K277" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L277" t="n">
         <v>36.41000000000001</v>
@@ -14524,7 +14546,7 @@
         <v>33.90000000000008</v>
       </c>
       <c r="K278" t="n">
-        <v>-7.692307692307734</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>36.39000000000001</v>
@@ -14575,7 +14597,7 @@
         <v>34.00000000000009</v>
       </c>
       <c r="K279" t="n">
-        <v>-7.692307692307734</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L279" t="n">
         <v>36.40000000000001</v>
@@ -14626,7 +14648,7 @@
         <v>34.00000000000009</v>
       </c>
       <c r="K280" t="n">
-        <v>-7.692307692307734</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L280" t="n">
         <v>36.39</v>
@@ -14677,7 +14699,7 @@
         <v>34.00000000000009</v>
       </c>
       <c r="K281" t="n">
-        <v>-4.000000000000023</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L281" t="n">
         <v>36.4</v>
@@ -14728,7 +14750,7 @@
         <v>34.00000000000009</v>
       </c>
       <c r="K282" t="n">
-        <v>-4.000000000000023</v>
+        <v>20</v>
       </c>
       <c r="L282" t="n">
         <v>36.39</v>
@@ -14779,7 +14801,7 @@
         <v>34.30000000000008</v>
       </c>
       <c r="K283" t="n">
-        <v>-14.28571428571414</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L283" t="n">
         <v>36.37</v>
@@ -14881,7 +14903,7 @@
         <v>35.20000000000008</v>
       </c>
       <c r="K285" t="n">
-        <v>-20</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L285" t="n">
         <v>36.33</v>
@@ -14932,7 +14954,7 @@
         <v>35.20000000000008</v>
       </c>
       <c r="K286" t="n">
-        <v>-17.64705882352939</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L286" t="n">
         <v>36.29000000000001</v>
@@ -14983,7 +15005,7 @@
         <v>35.30000000000008</v>
       </c>
       <c r="K287" t="n">
-        <v>-9.677419354838799</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L287" t="n">
         <v>36.24</v>
@@ -15034,7 +15056,7 @@
         <v>35.70000000000008</v>
       </c>
       <c r="K288" t="n">
-        <v>-6.250000000000055</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L288" t="n">
         <v>36.24</v>
@@ -15085,7 +15107,7 @@
         <v>36.00000000000008</v>
       </c>
       <c r="K289" t="n">
-        <v>-9.090909090908973</v>
+        <v>-20</v>
       </c>
       <c r="L289" t="n">
         <v>36.2</v>
@@ -15136,7 +15158,7 @@
         <v>36.00000000000008</v>
       </c>
       <c r="K290" t="n">
-        <v>-16.12903225806447</v>
+        <v>-20</v>
       </c>
       <c r="L290" t="n">
         <v>36.16000000000001</v>
@@ -15187,7 +15209,7 @@
         <v>36.00000000000008</v>
       </c>
       <c r="K291" t="n">
-        <v>-10.34482758620678</v>
+        <v>-20</v>
       </c>
       <c r="L291" t="n">
         <v>36.12000000000001</v>
@@ -15238,7 +15260,7 @@
         <v>36.00000000000008</v>
       </c>
       <c r="K292" t="n">
-        <v>-18.5185185185185</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L292" t="n">
         <v>36.08000000000001</v>
@@ -15289,7 +15311,7 @@
         <v>36.20000000000008</v>
       </c>
       <c r="K293" t="n">
-        <v>-3.703703703703489</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L293" t="n">
         <v>36.09000000000001</v>
@@ -15340,7 +15362,7 @@
         <v>36.20000000000008</v>
       </c>
       <c r="K294" t="n">
-        <v>-7.692307692307525</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L294" t="n">
         <v>36.06000000000001</v>
@@ -15391,7 +15413,7 @@
         <v>36.20000000000008</v>
       </c>
       <c r="K295" t="n">
-        <v>-11.99999999999989</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L295" t="n">
         <v>36.08000000000001</v>
@@ -15442,7 +15464,7 @@
         <v>36.20000000000008</v>
       </c>
       <c r="K296" t="n">
-        <v>-8.333333333333162</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L296" t="n">
         <v>36.10000000000001</v>
@@ -15493,7 +15515,7 @@
         <v>36.20000000000008</v>
       </c>
       <c r="K297" t="n">
-        <v>-8.333333333333162</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L297" t="n">
         <v>36.13000000000001</v>
@@ -15544,7 +15566,7 @@
         <v>36.30000000000008</v>
       </c>
       <c r="K298" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L298" t="n">
         <v>36.13000000000001</v>
@@ -15595,7 +15617,7 @@
         <v>36.40000000000008</v>
       </c>
       <c r="K299" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L299" t="n">
         <v>36.17</v>
@@ -15646,7 +15668,7 @@
         <v>36.50000000000008</v>
       </c>
       <c r="K300" t="n">
-        <v>4.000000000000068</v>
+        <v>100</v>
       </c>
       <c r="L300" t="n">
         <v>36.22000000000001</v>
@@ -15697,7 +15719,7 @@
         <v>36.50000000000008</v>
       </c>
       <c r="K301" t="n">
-        <v>4.000000000000068</v>
+        <v>100</v>
       </c>
       <c r="L301" t="n">
         <v>36.27</v>
@@ -15748,7 +15770,7 @@
         <v>36.60000000000008</v>
       </c>
       <c r="K302" t="n">
-        <v>7.692307692307819</v>
+        <v>100</v>
       </c>
       <c r="L302" t="n">
         <v>36.33000000000001</v>
@@ -15799,7 +15821,7 @@
         <v>36.80000000000008</v>
       </c>
       <c r="K303" t="n">
-        <v>27.99999999999991</v>
+        <v>100</v>
       </c>
       <c r="L303" t="n">
         <v>36.39000000000001</v>
@@ -15850,7 +15872,7 @@
         <v>36.80000000000008</v>
       </c>
       <c r="K304" t="n">
-        <v>14.28571428571419</v>
+        <v>100</v>
       </c>
       <c r="L304" t="n">
         <v>36.45000000000001</v>
@@ -15901,7 +15923,7 @@
         <v>37.00000000000007</v>
       </c>
       <c r="K305" t="n">
-        <v>33.3333333333336</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L305" t="n">
         <v>36.49000000000002</v>
@@ -15952,7 +15974,7 @@
         <v>37.00000000000007</v>
       </c>
       <c r="K306" t="n">
-        <v>33.3333333333336</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L306" t="n">
         <v>36.53000000000002</v>
@@ -16003,7 +16025,7 @@
         <v>37.10000000000007</v>
       </c>
       <c r="K307" t="n">
-        <v>33.3333333333336</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L307" t="n">
         <v>36.56000000000002</v>
@@ -16105,7 +16127,7 @@
         <v>37.10000000000007</v>
       </c>
       <c r="K309" t="n">
-        <v>45.45454545454569</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
         <v>36.59000000000002</v>
@@ -16156,7 +16178,7 @@
         <v>37.10000000000007</v>
       </c>
       <c r="K310" t="n">
-        <v>45.45454545454569</v>
+        <v>0</v>
       </c>
       <c r="L310" t="n">
         <v>36.59000000000002</v>
@@ -16207,7 +16229,7 @@
         <v>37.10000000000007</v>
       </c>
       <c r="K311" t="n">
-        <v>45.45454545454569</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L311" t="n">
         <v>36.59000000000002</v>
@@ -16258,7 +16280,7 @@
         <v>37.20000000000007</v>
       </c>
       <c r="K312" t="n">
-        <v>50.0000000000003</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L312" t="n">
         <v>36.59000000000002</v>
@@ -16309,7 +16331,7 @@
         <v>37.30000000000008</v>
       </c>
       <c r="K313" t="n">
-        <v>27.27272727272715</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L313" t="n">
         <v>36.56000000000002</v>
@@ -16360,7 +16382,7 @@
         <v>37.40000000000008</v>
       </c>
       <c r="K314" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L314" t="n">
         <v>36.54000000000002</v>
@@ -16411,7 +16433,7 @@
         <v>37.60000000000007</v>
       </c>
       <c r="K315" t="n">
-        <v>42.85714285714271</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L315" t="n">
         <v>36.56000000000002</v>
@@ -16462,7 +16484,7 @@
         <v>37.70000000000007</v>
       </c>
       <c r="K316" t="n">
-        <v>33.33333333333365</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L316" t="n">
         <v>36.57000000000001</v>
@@ -16513,7 +16535,7 @@
         <v>37.80000000000007</v>
       </c>
       <c r="K317" t="n">
-        <v>25.00000000000011</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L317" t="n">
         <v>36.58000000000002</v>
@@ -16564,7 +16586,7 @@
         <v>37.80000000000007</v>
       </c>
       <c r="K318" t="n">
-        <v>20.00000000000038</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L318" t="n">
         <v>36.59000000000002</v>
@@ -16615,7 +16637,7 @@
         <v>37.90000000000007</v>
       </c>
       <c r="K319" t="n">
-        <v>20.00000000000038</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L319" t="n">
         <v>36.61000000000002</v>
@@ -16666,7 +16688,7 @@
         <v>37.90000000000007</v>
       </c>
       <c r="K320" t="n">
-        <v>14.28571428571458</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L320" t="n">
         <v>36.63000000000002</v>
@@ -16717,7 +16739,7 @@
         <v>38.00000000000007</v>
       </c>
       <c r="K321" t="n">
-        <v>6.666666666666793</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>36.64000000000002</v>
@@ -16768,7 +16790,7 @@
         <v>38.00000000000007</v>
       </c>
       <c r="K322" t="n">
-        <v>0</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L322" t="n">
         <v>36.64000000000002</v>
@@ -16819,7 +16841,7 @@
         <v>38.00000000000007</v>
       </c>
       <c r="K323" t="n">
-        <v>-16.66666666666637</v>
+        <v>0</v>
       </c>
       <c r="L323" t="n">
         <v>36.65000000000002</v>
@@ -16870,7 +16892,7 @@
         <v>38.00000000000007</v>
       </c>
       <c r="K324" t="n">
-        <v>-16.66666666666637</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L324" t="n">
         <v>36.65000000000002</v>
@@ -16921,7 +16943,7 @@
         <v>38.00000000000007</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L325" t="n">
         <v>36.63000000000002</v>
@@ -16972,7 +16994,7 @@
         <v>38.20000000000007</v>
       </c>
       <c r="K326" t="n">
-        <v>16.66666666666637</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L326" t="n">
         <v>36.64000000000003</v>
@@ -17023,7 +17045,7 @@
         <v>38.40000000000007</v>
       </c>
       <c r="K327" t="n">
-        <v>38.46153846153855</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L327" t="n">
         <v>36.68000000000002</v>
@@ -17074,7 +17096,7 @@
         <v>38.50000000000007</v>
       </c>
       <c r="K328" t="n">
-        <v>28.5714285714285</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L328" t="n">
         <v>36.71000000000002</v>
@@ -17125,7 +17147,7 @@
         <v>38.80000000000007</v>
       </c>
       <c r="K329" t="n">
-        <v>5.882352941176569</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L329" t="n">
         <v>36.70000000000002</v>
@@ -17176,7 +17198,7 @@
         <v>39.00000000000006</v>
       </c>
       <c r="K330" t="n">
-        <v>15.78947368421045</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L330" t="n">
         <v>36.71000000000002</v>
@@ -17227,7 +17249,7 @@
         <v>39.10000000000007</v>
       </c>
       <c r="K331" t="n">
-        <v>20</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L331" t="n">
         <v>36.74000000000002</v>
@@ -17278,7 +17300,7 @@
         <v>39.10000000000007</v>
       </c>
       <c r="K332" t="n">
-        <v>15.78947368421045</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L332" t="n">
         <v>36.77000000000002</v>
@@ -17329,7 +17351,7 @@
         <v>39.10000000000007</v>
       </c>
       <c r="K333" t="n">
-        <v>22.22222222222226</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L333" t="n">
         <v>36.80000000000001</v>
@@ -17380,7 +17402,7 @@
         <v>39.10000000000007</v>
       </c>
       <c r="K334" t="n">
-        <v>17.64705882352936</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L334" t="n">
         <v>36.83000000000001</v>
@@ -17431,7 +17453,7 @@
         <v>39.20000000000007</v>
       </c>
       <c r="K335" t="n">
-        <v>12.50000000000022</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L335" t="n">
         <v>36.87</v>
@@ -17482,7 +17504,7 @@
         <v>39.40000000000007</v>
       </c>
       <c r="K336" t="n">
-        <v>29.41176470588231</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L336" t="n">
         <v>36.91</v>
@@ -17533,7 +17555,7 @@
         <v>39.50000000000007</v>
       </c>
       <c r="K337" t="n">
-        <v>29.41176470588231</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L337" t="n">
         <v>36.92</v>
@@ -17584,7 +17606,7 @@
         <v>39.60000000000007</v>
       </c>
       <c r="K338" t="n">
-        <v>22.22222222222209</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L338" t="n">
         <v>36.93000000000001</v>
@@ -17635,7 +17657,7 @@
         <v>39.80000000000008</v>
       </c>
       <c r="K339" t="n">
-        <v>26.31578947368413</v>
+        <v>50</v>
       </c>
       <c r="L339" t="n">
         <v>36.99</v>
@@ -17686,7 +17708,7 @@
         <v>40.10000000000007</v>
       </c>
       <c r="K340" t="n">
-        <v>36.36363636363619</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L340" t="n">
         <v>37.06</v>
@@ -17737,7 +17759,7 @@
         <v>40.30000000000008</v>
       </c>
       <c r="K341" t="n">
-        <v>30.43478260869541</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L341" t="n">
         <v>37.10000000000001</v>
@@ -17788,7 +17810,7 @@
         <v>40.60000000000008</v>
       </c>
       <c r="K342" t="n">
-        <v>38.46153846153834</v>
+        <v>46.66666666666642</v>
       </c>
       <c r="L342" t="n">
         <v>37.17000000000001</v>
@@ -17839,7 +17861,7 @@
         <v>40.70000000000008</v>
       </c>
       <c r="K343" t="n">
-        <v>33.33333333333316</v>
+        <v>37.49999999999972</v>
       </c>
       <c r="L343" t="n">
         <v>37.23000000000001</v>
@@ -17890,7 +17912,7 @@
         <v>40.70000000000008</v>
       </c>
       <c r="K344" t="n">
-        <v>33.33333333333316</v>
+        <v>33.33333333333302</v>
       </c>
       <c r="L344" t="n">
         <v>37.29000000000001</v>
@@ -17941,7 +17963,7 @@
         <v>40.70000000000008</v>
       </c>
       <c r="K345" t="n">
-        <v>33.33333333333316</v>
+        <v>23.07692307692266</v>
       </c>
       <c r="L345" t="n">
         <v>37.34000000000002</v>
@@ -17992,7 +18014,7 @@
         <v>40.70000000000008</v>
       </c>
       <c r="K346" t="n">
-        <v>27.99999999999995</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L346" t="n">
         <v>37.37000000000002</v>
@@ -18043,7 +18065,7 @@
         <v>40.90000000000008</v>
       </c>
       <c r="K347" t="n">
-        <v>11.99999999999982</v>
+        <v>23.07692307692266</v>
       </c>
       <c r="L347" t="n">
         <v>37.39000000000001</v>
@@ -18094,7 +18116,7 @@
         <v>41.20000000000008</v>
       </c>
       <c r="K348" t="n">
-        <v>3.703703703703742</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L348" t="n">
         <v>37.39000000000001</v>
@@ -18145,7 +18167,7 @@
         <v>41.30000000000008</v>
       </c>
       <c r="K349" t="n">
-        <v>11.99999999999982</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L349" t="n">
         <v>37.36000000000001</v>
@@ -18196,7 +18218,7 @@
         <v>41.40000000000008</v>
       </c>
       <c r="K350" t="n">
-        <v>8.333333333333384</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L350" t="n">
         <v>37.31000000000002</v>
@@ -18247,7 +18269,7 @@
         <v>41.40000000000008</v>
       </c>
       <c r="K351" t="n">
-        <v>4.347826086956549</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L351" t="n">
         <v>37.28000000000002</v>
@@ -18298,7 +18320,7 @@
         <v>41.40000000000008</v>
       </c>
       <c r="K352" t="n">
-        <v>4.347826086956549</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L352" t="n">
         <v>37.22000000000001</v>
@@ -18349,7 +18371,7 @@
         <v>41.40000000000008</v>
       </c>
       <c r="K353" t="n">
-        <v>4.347826086956549</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L353" t="n">
         <v>37.17000000000001</v>
@@ -18400,7 +18422,7 @@
         <v>41.40000000000008</v>
       </c>
       <c r="K354" t="n">
-        <v>4.347826086956549</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L354" t="n">
         <v>37.12000000000001</v>
@@ -18451,7 +18473,7 @@
         <v>41.50000000000009</v>
       </c>
       <c r="K355" t="n">
-        <v>-4.347826086956549</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L355" t="n">
         <v>37.06000000000001</v>
@@ -18502,7 +18524,7 @@
         <v>41.80000000000009</v>
       </c>
       <c r="K356" t="n">
-        <v>0</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L356" t="n">
         <v>37.03000000000001</v>
@@ -18553,7 +18575,7 @@
         <v>41.90000000000009</v>
       </c>
       <c r="K357" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L357" t="n">
         <v>37.01000000000001</v>
@@ -18604,7 +18626,7 @@
         <v>42.10000000000009</v>
       </c>
       <c r="K358" t="n">
-        <v>-4.000000000000023</v>
+        <v>0</v>
       </c>
       <c r="L358" t="n">
         <v>37.00000000000001</v>
@@ -18655,7 +18677,7 @@
         <v>42.10000000000009</v>
       </c>
       <c r="K359" t="n">
-        <v>-13.04347826086964</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L359" t="n">
         <v>37.00000000000001</v>
@@ -18706,7 +18728,7 @@
         <v>42.10000000000009</v>
       </c>
       <c r="K360" t="n">
-        <v>-29.99999999999975</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L360" t="n">
         <v>36.99</v>
@@ -18757,7 +18779,7 @@
         <v>42.10000000000009</v>
       </c>
       <c r="K361" t="n">
-        <v>-22.22222222222192</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L361" t="n">
         <v>36.98</v>
@@ -18808,7 +18830,7 @@
         <v>42.2000000000001</v>
       </c>
       <c r="K362" t="n">
-        <v>-49.99999999999978</v>
+        <v>-25</v>
       </c>
       <c r="L362" t="n">
         <v>36.96</v>
@@ -18859,7 +18881,7 @@
         <v>42.3000000000001</v>
       </c>
       <c r="K363" t="n">
-        <v>-37.49999999999972</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L363" t="n">
         <v>36.95</v>
@@ -18910,7 +18932,7 @@
         <v>42.3000000000001</v>
       </c>
       <c r="K364" t="n">
-        <v>-37.49999999999972</v>
+        <v>0</v>
       </c>
       <c r="L364" t="n">
         <v>36.94</v>
@@ -18961,7 +18983,7 @@
         <v>42.3000000000001</v>
       </c>
       <c r="K365" t="n">
-        <v>-37.49999999999972</v>
+        <v>-60</v>
       </c>
       <c r="L365" t="n">
         <v>36.94</v>
@@ -19012,7 +19034,7 @@
         <v>42.4000000000001</v>
       </c>
       <c r="K366" t="n">
-        <v>-29.41176470588206</v>
+        <v>-20</v>
       </c>
       <c r="L366" t="n">
         <v>36.92</v>
@@ -19063,7 +19085,7 @@
         <v>42.6000000000001</v>
       </c>
       <c r="K367" t="n">
-        <v>-29.41176470588206</v>
+        <v>-20</v>
       </c>
       <c r="L367" t="n">
         <v>36.89</v>
@@ -19114,7 +19136,7 @@
         <v>42.90000000000011</v>
       </c>
       <c r="K368" t="n">
-        <v>5.88235294117647</v>
+        <v>25</v>
       </c>
       <c r="L368" t="n">
         <v>36.91</v>
@@ -19216,7 +19238,7 @@
         <v>43.30000000000011</v>
       </c>
       <c r="K370" t="n">
-        <v>5.263157894736842</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L370" t="n">
         <v>36.93000000000001</v>
@@ -19267,7 +19289,7 @@
         <v>43.30000000000011</v>
       </c>
       <c r="K371" t="n">
-        <v>5.263157894736842</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L371" t="n">
         <v>36.95000000000001</v>
@@ -19318,7 +19340,7 @@
         <v>43.30000000000011</v>
       </c>
       <c r="K372" t="n">
-        <v>5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L372" t="n">
         <v>36.98000000000001</v>
@@ -19369,7 +19391,7 @@
         <v>43.60000000000012</v>
       </c>
       <c r="K373" t="n">
-        <v>-9.090909090909092</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L373" t="n">
         <v>36.97000000000001</v>
@@ -19420,7 +19442,7 @@
         <v>43.80000000000012</v>
       </c>
       <c r="K374" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L374" t="n">
         <v>36.98000000000002</v>
@@ -19471,7 +19493,7 @@
         <v>43.90000000000012</v>
       </c>
       <c r="K375" t="n">
-        <v>8.333333333333332</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L375" t="n">
         <v>37.00000000000002</v>
@@ -19522,7 +19544,7 @@
         <v>44.00000000000012</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L376" t="n">
         <v>37.02000000000002</v>
@@ -19573,7 +19595,7 @@
         <v>44.00000000000012</v>
       </c>
       <c r="K377" t="n">
-        <v>4.761904761904762</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L377" t="n">
         <v>37.06000000000002</v>
@@ -19624,7 +19646,7 @@
         <v>44.20000000000012</v>
       </c>
       <c r="K378" t="n">
-        <v>23.80952380952355</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L378" t="n">
         <v>37.09000000000002</v>
@@ -19675,7 +19697,7 @@
         <v>44.20000000000012</v>
       </c>
       <c r="K379" t="n">
-        <v>23.80952380952355</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L379" t="n">
         <v>37.14000000000001</v>
@@ -19726,7 +19748,7 @@
         <v>44.30000000000012</v>
       </c>
       <c r="K380" t="n">
-        <v>27.27272727272704</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L380" t="n">
         <v>37.18000000000001</v>
@@ -19777,7 +19799,7 @@
         <v>44.50000000000012</v>
       </c>
       <c r="K381" t="n">
-        <v>16.66666666666642</v>
+        <v>16.66666666666617</v>
       </c>
       <c r="L381" t="n">
         <v>37.20000000000001</v>
@@ -19828,7 +19850,7 @@
         <v>44.60000000000012</v>
       </c>
       <c r="K382" t="n">
-        <v>24.99999999999978</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L382" t="n">
         <v>37.23</v>
@@ -19879,7 +19901,7 @@
         <v>44.70000000000012</v>
       </c>
       <c r="K383" t="n">
-        <v>16.66666666666642</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L383" t="n">
         <v>37.28000000000001</v>
@@ -19930,7 +19952,7 @@
         <v>44.70000000000012</v>
       </c>
       <c r="K384" t="n">
-        <v>16.66666666666642</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L384" t="n">
         <v>37.31000000000001</v>
@@ -19981,7 +20003,7 @@
         <v>44.80000000000013</v>
       </c>
       <c r="K385" t="n">
-        <v>19.99999999999977</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L385" t="n">
         <v>37.34</v>
@@ -20032,7 +20054,7 @@
         <v>44.90000000000013</v>
       </c>
       <c r="K386" t="n">
-        <v>19.99999999999977</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L386" t="n">
         <v>37.37</v>
@@ -20083,7 +20105,7 @@
         <v>45.10000000000013</v>
       </c>
       <c r="K387" t="n">
-        <v>19.99999999999977</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L387" t="n">
         <v>37.38000000000001</v>
@@ -20134,7 +20156,7 @@
         <v>45.40000000000013</v>
       </c>
       <c r="K388" t="n">
-        <v>19.99999999999977</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L388" t="n">
         <v>37.40000000000001</v>
@@ -20185,7 +20207,7 @@
         <v>45.40000000000013</v>
       </c>
       <c r="K389" t="n">
-        <v>30.43478260869544</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L389" t="n">
         <v>37.42000000000002</v>
@@ -20236,7 +20258,7 @@
         <v>45.50000000000014</v>
       </c>
       <c r="K390" t="n">
-        <v>18.18181818181792</v>
+        <v>20</v>
       </c>
       <c r="L390" t="n">
         <v>37.42000000000002</v>
@@ -20287,7 +20309,7 @@
         <v>45.50000000000014</v>
       </c>
       <c r="K391" t="n">
-        <v>18.18181818181792</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L391" t="n">
         <v>37.44000000000001</v>
@@ -20338,7 +20360,7 @@
         <v>45.60000000000014</v>
       </c>
       <c r="K392" t="n">
-        <v>21.73913043478237</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L392" t="n">
         <v>37.46000000000002</v>
@@ -20389,7 +20411,7 @@
         <v>45.70000000000014</v>
       </c>
       <c r="K393" t="n">
-        <v>33.33333333333311</v>
+        <v>20</v>
       </c>
       <c r="L393" t="n">
         <v>37.48000000000002</v>
@@ -20440,7 +20462,7 @@
         <v>45.70000000000014</v>
       </c>
       <c r="K394" t="n">
-        <v>26.31578947368394</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L394" t="n">
         <v>37.50000000000001</v>
@@ -20491,7 +20513,7 @@
         <v>45.80000000000014</v>
       </c>
       <c r="K395" t="n">
-        <v>15.78947368421021</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L395" t="n">
         <v>37.50000000000001</v>
@@ -20542,7 +20564,7 @@
         <v>45.80000000000014</v>
       </c>
       <c r="K396" t="n">
-        <v>11.11111111111076</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L396" t="n">
         <v>37.49000000000002</v>
@@ -20593,7 +20615,7 @@
         <v>46.00000000000014</v>
       </c>
       <c r="K397" t="n">
-        <v>19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L397" t="n">
         <v>37.52000000000002</v>
@@ -20644,7 +20666,7 @@
         <v>46.10000000000014</v>
       </c>
       <c r="K398" t="n">
-        <v>5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L398" t="n">
         <v>37.51000000000001</v>
@@ -20695,7 +20717,7 @@
         <v>46.30000000000015</v>
       </c>
       <c r="K399" t="n">
-        <v>-4.761904761904762</v>
+        <v>-25</v>
       </c>
       <c r="L399" t="n">
         <v>37.48000000000001</v>
@@ -20746,7 +20768,7 @@
         <v>46.40000000000015</v>
       </c>
       <c r="K400" t="n">
-        <v>-4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L400" t="n">
         <v>37.47000000000001</v>
@@ -20797,7 +20819,7 @@
         <v>46.80000000000015</v>
       </c>
       <c r="K401" t="n">
-        <v>-13.0434782608693</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L401" t="n">
         <v>37.42000000000001</v>
@@ -20848,7 +20870,7 @@
         <v>46.80000000000015</v>
       </c>
       <c r="K402" t="n">
-        <v>-18.18181818181792</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L402" t="n">
         <v>37.36000000000001</v>
@@ -20899,7 +20921,7 @@
         <v>46.90000000000015</v>
       </c>
       <c r="K403" t="n">
-        <v>-18.18181818181792</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L403" t="n">
         <v>37.3</v>
@@ -20950,7 +20972,7 @@
         <v>46.90000000000015</v>
       </c>
       <c r="K404" t="n">
-        <v>-18.18181818181792</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L404" t="n">
         <v>37.24</v>
@@ -21001,7 +21023,7 @@
         <v>47.10000000000014</v>
       </c>
       <c r="K405" t="n">
-        <v>-30.43478260869522</v>
+        <v>-53.84615384615334</v>
       </c>
       <c r="L405" t="n">
         <v>37.17</v>
@@ -21052,7 +21074,7 @@
         <v>47.20000000000014</v>
       </c>
       <c r="K406" t="n">
-        <v>-39.13043478260832</v>
+        <v>-83.33333333333314</v>
       </c>
       <c r="L406" t="n">
         <v>37.09000000000001</v>
@@ -21103,7 +21125,7 @@
         <v>47.50000000000014</v>
       </c>
       <c r="K407" t="n">
-        <v>-16.66666666666652</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L407" t="n">
         <v>37.02</v>
@@ -21205,7 +21227,7 @@
         <v>47.70000000000014</v>
       </c>
       <c r="K409" t="n">
-        <v>-39.13043478260856</v>
+        <v>-53.84615384615393</v>
       </c>
       <c r="L409" t="n">
         <v>36.9</v>
@@ -21256,7 +21278,7 @@
         <v>48.30000000000013</v>
       </c>
       <c r="K410" t="n">
-        <v>-7.142857142857252</v>
+        <v>20</v>
       </c>
       <c r="L410" t="n">
         <v>36.89</v>
@@ -21307,7 +21329,7 @@
         <v>48.90000000000013</v>
       </c>
       <c r="K411" t="n">
-        <v>-23.52941176470586</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L411" t="n">
         <v>36.86</v>
@@ -21358,7 +21380,7 @@
         <v>49.00000000000013</v>
       </c>
       <c r="K412" t="n">
-        <v>-29.41176470588243</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L412" t="n">
         <v>36.82000000000001</v>
@@ -21409,7 +21431,7 @@
         <v>49.10000000000013</v>
       </c>
       <c r="K413" t="n">
-        <v>-23.52941176470586</v>
+        <v>-9.090909090908973</v>
       </c>
       <c r="L413" t="n">
         <v>36.8</v>
@@ -21460,7 +21482,7 @@
         <v>49.70000000000012</v>
       </c>
       <c r="K414" t="n">
-        <v>-5.000000000000089</v>
+        <v>23.07692307692303</v>
       </c>
       <c r="L414" t="n">
         <v>36.84000000000001</v>
@@ -21511,7 +21533,7 @@
         <v>49.70000000000012</v>
       </c>
       <c r="K415" t="n">
-        <v>-2.564102564102611</v>
+        <v>28.00000000000007</v>
       </c>
       <c r="L415" t="n">
         <v>36.90000000000001</v>
@@ -21562,7 +21584,7 @@
         <v>49.90000000000013</v>
       </c>
       <c r="K416" t="n">
-        <v>2.439024390243945</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L416" t="n">
         <v>36.99000000000001</v>
@@ -21613,7 +21635,7 @@
         <v>50.00000000000013</v>
       </c>
       <c r="K417" t="n">
-        <v>-5.000000000000089</v>
+        <v>20.00000000000011</v>
       </c>
       <c r="L417" t="n">
         <v>37.04000000000001</v>
@@ -21664,7 +21686,7 @@
         <v>50.20000000000012</v>
       </c>
       <c r="K418" t="n">
-        <v>-7.317073170731674</v>
+        <v>20.00000000000011</v>
       </c>
       <c r="L418" t="n">
         <v>37.07000000000001</v>
@@ -21715,7 +21737,7 @@
         <v>50.20000000000012</v>
       </c>
       <c r="K419" t="n">
-        <v>-2.564102564102433</v>
+        <v>-5.263157894736566</v>
       </c>
       <c r="L419" t="n">
         <v>37.12000000000001</v>
@@ -21766,7 +21788,7 @@
         <v>50.20000000000012</v>
       </c>
       <c r="K420" t="n">
-        <v>-5.263157894736763</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L420" t="n">
         <v>37.11000000000001</v>
@@ -21817,7 +21839,7 @@
         <v>50.50000000000013</v>
       </c>
       <c r="K421" t="n">
-        <v>-2.702702702702755</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L421" t="n">
         <v>37.13000000000001</v>
@@ -21868,7 +21890,7 @@
         <v>50.50000000000013</v>
       </c>
       <c r="K422" t="n">
-        <v>-2.702702702702755</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L422" t="n">
         <v>37.16</v>
@@ -21919,7 +21941,7 @@
         <v>50.60000000000013</v>
       </c>
       <c r="K423" t="n">
-        <v>-2.702702702702755</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L423" t="n">
         <v>37.17</v>
@@ -21970,7 +21992,7 @@
         <v>50.80000000000013</v>
       </c>
       <c r="K424" t="n">
-        <v>-7.692307692307663</v>
+        <v>-63.63636363636317</v>
       </c>
       <c r="L424" t="n">
         <v>37.10000000000001</v>
@@ -22021,7 +22043,7 @@
         <v>51.10000000000012</v>
       </c>
       <c r="K425" t="n">
-        <v>4.99999999999992</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L425" t="n">
         <v>37.06</v>
@@ -22072,7 +22094,7 @@
         <v>51.50000000000012</v>
       </c>
       <c r="K426" t="n">
-        <v>-2.325581395348884</v>
+        <v>-60.00000000000018</v>
       </c>
       <c r="L426" t="n">
         <v>36.96</v>
@@ -22123,7 +22145,7 @@
         <v>51.50000000000012</v>
       </c>
       <c r="K427" t="n">
-        <v>-10.00000000000002</v>
+        <v>-53.84615384615419</v>
       </c>
       <c r="L427" t="n">
         <v>36.87</v>
@@ -22174,7 +22196,7 @@
         <v>51.90000000000012</v>
       </c>
       <c r="K428" t="n">
-        <v>0</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L428" t="n">
         <v>36.84</v>
@@ -22225,7 +22247,7 @@
         <v>52.20000000000012</v>
       </c>
       <c r="K429" t="n">
-        <v>-2.222222222222264</v>
+        <v>-30.00000000000018</v>
       </c>
       <c r="L429" t="n">
         <v>36.78000000000001</v>
@@ -22276,7 +22298,7 @@
         <v>52.50000000000011</v>
       </c>
       <c r="K430" t="n">
-        <v>-9.523809523809531</v>
+        <v>0</v>
       </c>
       <c r="L430" t="n">
         <v>36.75000000000001</v>
@@ -22327,7 +22349,7 @@
         <v>52.80000000000011</v>
       </c>
       <c r="K431" t="n">
-        <v>-2.564102564102611</v>
+        <v>-13.04347826086954</v>
       </c>
       <c r="L431" t="n">
         <v>36.72000000000001</v>
@@ -22378,7 +22400,7 @@
         <v>53.10000000000011</v>
       </c>
       <c r="K432" t="n">
-        <v>7.317073170731674</v>
+        <v>4.000000000000091</v>
       </c>
       <c r="L432" t="n">
         <v>36.72000000000001</v>
@@ -22429,7 +22451,7 @@
         <v>53.40000000000011</v>
       </c>
       <c r="K433" t="n">
-        <v>-2.325581395348884</v>
+        <v>0</v>
       </c>
       <c r="L433" t="n">
         <v>36.70000000000001</v>
@@ -22480,7 +22502,7 @@
         <v>54.8000000000001</v>
       </c>
       <c r="K434" t="n">
-        <v>13.72549019607854</v>
+        <v>29.72972972972991</v>
       </c>
       <c r="L434" t="n">
         <v>36.84000000000001</v>
@@ -22531,7 +22553,7 @@
         <v>55.90000000000011</v>
       </c>
       <c r="K435" t="n">
-        <v>-6.451612903225802</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L435" t="n">
         <v>36.84000000000001</v>
@@ -22582,7 +22604,7 @@
         <v>56.3000000000001</v>
       </c>
       <c r="K436" t="n">
-        <v>-3.125000000000056</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L436" t="n">
         <v>36.92000000000001</v>
@@ -22633,7 +22655,7 @@
         <v>56.3000000000001</v>
       </c>
       <c r="K437" t="n">
-        <v>-1.587301587301616</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L437" t="n">
         <v>37.00000000000001</v>
@@ -22684,7 +22706,7 @@
         <v>56.7000000000001</v>
       </c>
       <c r="K438" t="n">
-        <v>-4.615384615384696</v>
+        <v>6.666666666666625</v>
       </c>
       <c r="L438" t="n">
         <v>37.00000000000001</v>
@@ -22735,7 +22757,7 @@
         <v>57.00000000000011</v>
       </c>
       <c r="K439" t="n">
-        <v>0</v>
+        <v>6.666666666666772</v>
       </c>
       <c r="L439" t="n">
         <v>37.06000000000001</v>
@@ -22786,7 +22808,7 @@
         <v>57.20000000000011</v>
       </c>
       <c r="K440" t="n">
-        <v>-2.857142857142903</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L440" t="n">
         <v>37.07000000000001</v>
@@ -22888,7 +22910,7 @@
         <v>57.50000000000011</v>
       </c>
       <c r="K442" t="n">
-        <v>-2.857142857142805</v>
+        <v>2.439024390243936</v>
       </c>
       <c r="L442" t="n">
         <v>37.08000000000001</v>
@@ -22939,7 +22961,7 @@
         <v>58.00000000000011</v>
       </c>
       <c r="K443" t="n">
-        <v>5.405405405405499</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L443" t="n">
         <v>37.14</v>
@@ -22990,7 +23012,7 @@
         <v>58.40000000000011</v>
       </c>
       <c r="K444" t="n">
-        <v>2.63157894736837</v>
+        <v>-4.000000000000045</v>
       </c>
       <c r="L444" t="n">
         <v>37.02</v>
@@ -23041,7 +23063,7 @@
         <v>58.40000000000011</v>
       </c>
       <c r="K445" t="n">
-        <v>-1.369863013698651</v>
+        <v>-23.80952380952371</v>
       </c>
       <c r="L445" t="n">
         <v>37.01000000000001</v>
@@ -23092,7 +23114,7 @@
         <v>58.50000000000011</v>
       </c>
       <c r="K446" t="n">
-        <v>2.857142857142903</v>
+        <v>-27.27272727272697</v>
       </c>
       <c r="L446" t="n">
         <v>36.95</v>
@@ -23143,7 +23165,7 @@
         <v>58.6000000000001</v>
       </c>
       <c r="K447" t="n">
-        <v>4.225352112676028</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L447" t="n">
         <v>36.90000000000001</v>
@@ -23194,7 +23216,7 @@
         <v>58.6000000000001</v>
       </c>
       <c r="K448" t="n">
-        <v>-1.492537313432861</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L448" t="n">
         <v>36.89000000000001</v>
@@ -23245,7 +23267,7 @@
         <v>58.90000000000011</v>
       </c>
       <c r="K449" t="n">
-        <v>7.462686567164193</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L449" t="n">
         <v>36.88000000000001</v>
@@ -23347,7 +23369,7 @@
         <v>59.10000000000011</v>
       </c>
       <c r="K451" t="n">
-        <v>4.761904761904718</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L451" t="n">
         <v>36.87000000000001</v>
@@ -23398,7 +23420,7 @@
         <v>59.40000000000011</v>
       </c>
       <c r="K452" t="n">
-        <v>4.761904761904826</v>
+        <v>0</v>
       </c>
       <c r="L452" t="n">
         <v>36.92000000000001</v>
@@ -23449,7 +23471,7 @@
         <v>59.60000000000012</v>
       </c>
       <c r="K453" t="n">
-        <v>6.451612903225773</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L453" t="n">
         <v>36.90000000000001</v>
@@ -23500,7 +23522,7 @@
         <v>59.90000000000011</v>
       </c>
       <c r="K454" t="n">
-        <v>-13.72549019607846</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L454" t="n">
         <v>36.95000000000001</v>
@@ -23551,7 +23573,7 @@
         <v>60.30000000000011</v>
       </c>
       <c r="K455" t="n">
-        <v>0</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L455" t="n">
         <v>36.96000000000001</v>
@@ -23602,7 +23624,7 @@
         <v>60.30000000000011</v>
       </c>
       <c r="K456" t="n">
-        <v>-9.999999999999947</v>
+        <v>5.88235294117652</v>
       </c>
       <c r="L456" t="n">
         <v>36.98</v>
@@ -23653,7 +23675,7 @@
         <v>60.40000000000011</v>
       </c>
       <c r="K457" t="n">
-        <v>-12.19512195121949</v>
+        <v>0</v>
       </c>
       <c r="L457" t="n">
         <v>36.98</v>
@@ -23704,7 +23726,7 @@
         <v>60.40000000000011</v>
       </c>
       <c r="K458" t="n">
-        <v>-2.702702702702734</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L458" t="n">
         <v>36.98</v>
@@ -23755,7 +23777,7 @@
         <v>60.50000000000011</v>
       </c>
       <c r="K459" t="n">
-        <v>-8.571428571428676</v>
+        <v>0</v>
       </c>
       <c r="L459" t="n">
         <v>36.96</v>
@@ -23806,7 +23828,7 @@
         <v>60.50000000000011</v>
       </c>
       <c r="K460" t="n">
-        <v>-3.03030303030307</v>
+        <v>0</v>
       </c>
       <c r="L460" t="n">
         <v>36.96</v>
@@ -23857,7 +23879,7 @@
         <v>60.50000000000011</v>
       </c>
       <c r="K461" t="n">
-        <v>0</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L461" t="n">
         <v>36.96</v>
@@ -23908,7 +23930,7 @@
         <v>60.50000000000011</v>
       </c>
       <c r="K462" t="n">
-        <v>6.666666666666508</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L462" t="n">
         <v>36.93</v>
@@ -23959,7 +23981,7 @@
         <v>60.50000000000011</v>
       </c>
       <c r="K463" t="n">
-        <v>-12.00000000000014</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L463" t="n">
         <v>36.92</v>
@@ -24010,7 +24032,7 @@
         <v>60.70000000000012</v>
       </c>
       <c r="K464" t="n">
-        <v>13.04347826086973</v>
+        <v>50</v>
       </c>
       <c r="L464" t="n">
         <v>36.9</v>
@@ -24061,7 +24083,7 @@
         <v>60.80000000000012</v>
       </c>
       <c r="K465" t="n">
-        <v>8.333333333333432</v>
+        <v>20</v>
       </c>
       <c r="L465" t="n">
         <v>36.91</v>
@@ -24112,7 +24134,7 @@
         <v>60.80000000000012</v>
       </c>
       <c r="K466" t="n">
-        <v>13.04347826086938</v>
+        <v>50</v>
       </c>
       <c r="L466" t="n">
         <v>36.92</v>
@@ -24163,7 +24185,7 @@
         <v>60.90000000000012</v>
       </c>
       <c r="K467" t="n">
-        <v>4.347826086956549</v>
+        <v>20</v>
       </c>
       <c r="L467" t="n">
         <v>36.93</v>
@@ -24214,7 +24236,7 @@
         <v>60.90000000000012</v>
       </c>
       <c r="K468" t="n">
-        <v>4.347826086956549</v>
+        <v>0</v>
       </c>
       <c r="L468" t="n">
         <v>36.94</v>
@@ -24265,7 +24287,7 @@
         <v>60.90000000000012</v>
       </c>
       <c r="K469" t="n">
-        <v>-10.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L469" t="n">
         <v>36.94</v>
@@ -24367,7 +24389,7 @@
         <v>61.00000000000012</v>
       </c>
       <c r="K471" t="n">
-        <v>5.263157894736882</v>
+        <v>20</v>
       </c>
       <c r="L471" t="n">
         <v>36.95</v>
@@ -24418,7 +24440,7 @@
         <v>61.00000000000012</v>
       </c>
       <c r="K472" t="n">
-        <v>-12.50000000000011</v>
+        <v>20</v>
       </c>
       <c r="L472" t="n">
         <v>36.96</v>
@@ -24469,7 +24491,7 @@
         <v>61.20000000000012</v>
       </c>
       <c r="K473" t="n">
-        <v>12.50000000000011</v>
+        <v>20</v>
       </c>
       <c r="L473" t="n">
         <v>36.99</v>
@@ -24520,7 +24542,7 @@
         <v>61.20000000000012</v>
       </c>
       <c r="K474" t="n">
-        <v>-7.692307692307187</v>
+        <v>50</v>
       </c>
       <c r="L474" t="n">
         <v>37</v>
@@ -24571,7 +24593,7 @@
         <v>61.20000000000012</v>
       </c>
       <c r="K475" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L475" t="n">
         <v>37.02</v>
@@ -24622,7 +24644,7 @@
         <v>61.30000000000012</v>
       </c>
       <c r="K476" t="n">
-        <v>39.99999999999957</v>
+        <v>100</v>
       </c>
       <c r="L476" t="n">
         <v>37.05</v>
@@ -24673,7 +24695,7 @@
         <v>61.30000000000012</v>
       </c>
       <c r="K477" t="n">
-        <v>55.5555555555552</v>
+        <v>100</v>
       </c>
       <c r="L477" t="n">
         <v>37.09</v>
@@ -24724,7 +24746,7 @@
         <v>61.40000000000012</v>
       </c>
       <c r="K478" t="n">
-        <v>59.99999999999972</v>
+        <v>100</v>
       </c>
       <c r="L478" t="n">
         <v>37.14</v>
@@ -24775,7 +24797,7 @@
         <v>61.40000000000012</v>
       </c>
       <c r="K479" t="n">
-        <v>55.5555555555552</v>
+        <v>100</v>
       </c>
       <c r="L479" t="n">
         <v>37.19</v>
@@ -24826,7 +24848,7 @@
         <v>61.40000000000012</v>
       </c>
       <c r="K480" t="n">
-        <v>55.5555555555552</v>
+        <v>100</v>
       </c>
       <c r="L480" t="n">
         <v>37.24</v>
@@ -24877,7 +24899,7 @@
         <v>61.50000000000012</v>
       </c>
       <c r="K481" t="n">
-        <v>59.99999999999972</v>
+        <v>100</v>
       </c>
       <c r="L481" t="n">
         <v>37.29000000000001</v>
@@ -24928,7 +24950,7 @@
         <v>61.50000000000012</v>
       </c>
       <c r="K482" t="n">
-        <v>59.99999999999972</v>
+        <v>100</v>
       </c>
       <c r="L482" t="n">
         <v>37.34</v>
@@ -24979,7 +25001,7 @@
         <v>61.60000000000012</v>
       </c>
       <c r="K483" t="n">
-        <v>45.45454545454511</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L483" t="n">
         <v>37.36</v>
@@ -25030,7 +25052,7 @@
         <v>61.70000000000012</v>
       </c>
       <c r="K484" t="n">
-        <v>19.99999999999943</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L484" t="n">
         <v>37.37</v>
@@ -25081,7 +25103,7 @@
         <v>61.80000000000013</v>
       </c>
       <c r="K485" t="n">
-        <v>39.99999999999957</v>
+        <v>20</v>
       </c>
       <c r="L485" t="n">
         <v>37.39</v>
@@ -25132,7 +25154,7 @@
         <v>61.80000000000013</v>
       </c>
       <c r="K486" t="n">
-        <v>39.99999999999957</v>
+        <v>20</v>
       </c>
       <c r="L486" t="n">
         <v>37.4</v>
@@ -25183,7 +25205,7 @@
         <v>62.20000000000012</v>
       </c>
       <c r="K487" t="n">
-        <v>69.2307692307689</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L487" t="n">
         <v>37.45</v>
@@ -25234,7 +25256,7 @@
         <v>62.40000000000013</v>
       </c>
       <c r="K488" t="n">
-        <v>73.33333333333309</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L488" t="n">
         <v>37.51000000000001</v>
@@ -25285,7 +25307,7 @@
         <v>62.40000000000013</v>
       </c>
       <c r="K489" t="n">
-        <v>73.33333333333309</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L489" t="n">
         <v>37.57000000000001</v>
@@ -25336,7 +25358,7 @@
         <v>63.10000000000013</v>
       </c>
       <c r="K490" t="n">
-        <v>81.81818181818164</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L490" t="n">
         <v>37.7</v>
@@ -25387,7 +25409,7 @@
         <v>63.70000000000013</v>
       </c>
       <c r="K491" t="n">
-        <v>40.74074074074064</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L491" t="n">
         <v>37.76000000000001</v>
@@ -25438,7 +25460,7 @@
         <v>63.80000000000013</v>
       </c>
       <c r="K492" t="n">
-        <v>35.71428571428557</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L492" t="n">
         <v>37.81000000000001</v>
@@ -25489,7 +25511,7 @@
         <v>64.00000000000014</v>
       </c>
       <c r="K493" t="n">
-        <v>21.42857142857108</v>
+        <v>21.73913043478243</v>
       </c>
       <c r="L493" t="n">
         <v>37.85000000000001</v>
@@ -25540,7 +25562,7 @@
         <v>64.10000000000014</v>
       </c>
       <c r="K494" t="n">
-        <v>24.13793103448251</v>
+        <v>21.7391304347825</v>
       </c>
       <c r="L494" t="n">
         <v>37.91000000000001</v>
@@ -25591,7 +25613,7 @@
         <v>64.20000000000013</v>
       </c>
       <c r="K495" t="n">
-        <v>19.99999999999976</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L495" t="n">
         <v>37.95000000000001</v>
@@ -25642,7 +25664,7 @@
         <v>64.90000000000013</v>
       </c>
       <c r="K496" t="n">
-        <v>33.33333333333326</v>
+        <v>25.92592592592593</v>
       </c>
       <c r="L496" t="n">
         <v>38.06000000000002</v>
@@ -25693,7 +25715,7 @@
         <v>65.30000000000013</v>
       </c>
       <c r="K497" t="n">
-        <v>20.00000000000007</v>
+        <v>3.448275862069016</v>
       </c>
       <c r="L497" t="n">
         <v>38.09000000000002</v>
@@ -25744,7 +25766,7 @@
         <v>65.30000000000013</v>
       </c>
       <c r="K498" t="n">
-        <v>17.948717948718</v>
+        <v>3.448275862069016</v>
       </c>
       <c r="L498" t="n">
         <v>38.10000000000002</v>
@@ -25795,7 +25817,7 @@
         <v>65.70000000000013</v>
       </c>
       <c r="K499" t="n">
-        <v>25.58139534883718</v>
+        <v>-7.692307692307796</v>
       </c>
       <c r="L499" t="n">
         <v>38.15000000000002</v>
@@ -25846,7 +25868,7 @@
         <v>66.10000000000014</v>
       </c>
       <c r="K500" t="n">
-        <v>14.8936170212766</v>
+        <v>0</v>
       </c>
       <c r="L500" t="n">
         <v>38.09000000000002</v>
@@ -25897,7 +25919,7 @@
         <v>66.10000000000014</v>
       </c>
       <c r="K501" t="n">
-        <v>13.04347826086955</v>
+        <v>4.347826086956576</v>
       </c>
       <c r="L501" t="n">
         <v>38.09000000000002</v>
@@ -25948,7 +25970,7 @@
         <v>66.10000000000014</v>
       </c>
       <c r="K502" t="n">
-        <v>13.04347826086955</v>
+        <v>14.28571428571453</v>
       </c>
       <c r="L502" t="n">
         <v>38.10000000000002</v>
@@ -25999,7 +26021,7 @@
         <v>66.10000000000014</v>
       </c>
       <c r="K503" t="n">
-        <v>15.55555555555557</v>
+        <v>10.00000000000014</v>
       </c>
       <c r="L503" t="n">
         <v>38.13000000000002</v>
@@ -26050,7 +26072,7 @@
         <v>66.30000000000014</v>
       </c>
       <c r="K504" t="n">
-        <v>13.04347826086955</v>
+        <v>4.76190476190481</v>
       </c>
       <c r="L504" t="n">
         <v>38.13000000000002</v>
@@ -26101,7 +26123,7 @@
         <v>66.40000000000015</v>
       </c>
       <c r="K505" t="n">
-        <v>13.04347826086953</v>
+        <v>-33.33333333333302</v>
       </c>
       <c r="L505" t="n">
         <v>38.15000000000002</v>
@@ -26152,7 +26174,7 @@
         <v>66.40000000000015</v>
       </c>
       <c r="K506" t="n">
-        <v>13.04347826086953</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L506" t="n">
         <v>38.10000000000002</v>
@@ -26203,7 +26225,7 @@
         <v>66.60000000000015</v>
       </c>
       <c r="K507" t="n">
-        <v>9.090909090909165</v>
+        <v>7.69230769230765</v>
       </c>
       <c r="L507" t="n">
         <v>38.11000000000002</v>
@@ -26254,7 +26276,7 @@
         <v>66.90000000000015</v>
       </c>
       <c r="K508" t="n">
-        <v>11.11111111111106</v>
+        <v>0</v>
       </c>
       <c r="L508" t="n">
         <v>38.15000000000002</v>
@@ -26305,7 +26327,7 @@
         <v>67.10000000000015</v>
       </c>
       <c r="K509" t="n">
-        <v>6.382978723404162</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L509" t="n">
         <v>38.13000000000002</v>
@@ -26356,7 +26378,7 @@
         <v>67.10000000000015</v>
       </c>
       <c r="K510" t="n">
-        <v>-10.00000000000009</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L510" t="n">
         <v>38.15000000000002</v>
@@ -26407,7 +26429,7 @@
         <v>67.10000000000015</v>
       </c>
       <c r="K511" t="n">
-        <v>5.882352941176311</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L511" t="n">
         <v>38.17000000000002</v>
@@ -26458,7 +26480,7 @@
         <v>67.20000000000016</v>
       </c>
       <c r="K512" t="n">
-        <v>11.76470588235281</v>
+        <v>27.27272727272645</v>
       </c>
       <c r="L512" t="n">
         <v>38.20000000000001</v>
@@ -26509,7 +26531,7 @@
         <v>67.50000000000016</v>
       </c>
       <c r="K513" t="n">
-        <v>8.571428571428658</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L513" t="n">
         <v>38.20000000000001</v>
@@ -26560,7 +26582,7 @@
         <v>67.50000000000016</v>
       </c>
       <c r="K514" t="n">
-        <v>5.88235294117652</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L514" t="n">
         <v>38.22000000000001</v>
@@ -26611,7 +26633,7 @@
         <v>67.60000000000016</v>
       </c>
       <c r="K515" t="n">
-        <v>11.76470588235299</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L515" t="n">
         <v>38.24000000000002</v>
@@ -26662,7 +26684,7 @@
         <v>67.70000000000016</v>
       </c>
       <c r="K516" t="n">
-        <v>-14.28571428571411</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L516" t="n">
         <v>38.25000000000001</v>
@@ -26713,7 +26735,7 @@
         <v>68.00000000000017</v>
       </c>
       <c r="K517" t="n">
-        <v>-11.11111111111108</v>
+        <v>-63.63636363636258</v>
       </c>
       <c r="L517" t="n">
         <v>38.21000000000002</v>
@@ -26764,7 +26786,7 @@
         <v>68.30000000000018</v>
       </c>
       <c r="K518" t="n">
-        <v>0</v>
+        <v>-16.66666666666588</v>
       </c>
       <c r="L518" t="n">
         <v>38.17000000000002</v>
@@ -26815,7 +26837,7 @@
         <v>68.50000000000018</v>
       </c>
       <c r="K519" t="n">
-        <v>-21.42857142857107</v>
+        <v>-28.57142857142778</v>
       </c>
       <c r="L519" t="n">
         <v>38.13000000000002</v>
@@ -26866,7 +26888,7 @@
         <v>68.70000000000019</v>
       </c>
       <c r="K520" t="n">
-        <v>-15.38461538461503</v>
+        <v>-37.49999999999878</v>
       </c>
       <c r="L520" t="n">
         <v>38.07000000000001</v>
@@ -26917,7 +26939,7 @@
         <v>68.80000000000018</v>
       </c>
       <c r="K521" t="n">
-        <v>-18.51851851851821</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L521" t="n">
         <v>38.00000000000001</v>
@@ -26968,7 +26990,7 @@
         <v>69.00000000000017</v>
       </c>
       <c r="K522" t="n">
-        <v>-10.34482758620692</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L522" t="n">
         <v>37.94000000000002</v>
@@ -27019,7 +27041,7 @@
         <v>69.50000000000017</v>
       </c>
       <c r="K523" t="n">
-        <v>-23.52941176470577</v>
+        <v>-39.99999999999993</v>
       </c>
       <c r="L523" t="n">
         <v>37.86000000000002</v>
@@ -27070,7 +27092,7 @@
         <v>70.00000000000017</v>
       </c>
       <c r="K524" t="n">
-        <v>-2.702702702702718</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L524" t="n">
         <v>37.83000000000002</v>
@@ -27121,7 +27143,7 @@
         <v>70.40000000000018</v>
       </c>
       <c r="K525" t="n">
-        <v>-14.99999999999993</v>
+        <v>-25.92592592592587</v>
       </c>
       <c r="L525" t="n">
         <v>37.75000000000001</v>
@@ -27172,7 +27194,7 @@
         <v>70.50000000000017</v>
       </c>
       <c r="K526" t="n">
-        <v>-17.07317073170729</v>
+        <v>-20</v>
       </c>
       <c r="L526" t="n">
         <v>37.67000000000002</v>
@@ -27223,7 +27245,7 @@
         <v>70.60000000000016</v>
       </c>
       <c r="K527" t="n">
-        <v>-24.99999999999991</v>
+        <v>-39.13043478260892</v>
       </c>
       <c r="L527" t="n">
         <v>37.61000000000001</v>
@@ -27274,7 +27296,7 @@
         <v>71.00000000000017</v>
       </c>
       <c r="K528" t="n">
-        <v>-21.95121951219497</v>
+        <v>-11.99999999999996</v>
       </c>
       <c r="L528" t="n">
         <v>37.56000000000002</v>
@@ -27325,7 +27347,7 @@
         <v>71.30000000000017</v>
       </c>
       <c r="K529" t="n">
-        <v>-9.523809523809451</v>
+        <v>7.692307692307587</v>
       </c>
       <c r="L529" t="n">
         <v>37.56000000000002</v>
@@ -27376,7 +27398,7 @@
         <v>71.90000000000018</v>
       </c>
       <c r="K530" t="n">
-        <v>-20.83333333333322</v>
+        <v>-9.677419354838865</v>
       </c>
       <c r="L530" t="n">
         <v>37.52000000000002</v>
@@ -27427,7 +27449,7 @@
         <v>72.20000000000019</v>
       </c>
       <c r="K531" t="n">
-        <v>-13.72549019607825</v>
+        <v>-6.249999999999833</v>
       </c>
       <c r="L531" t="n">
         <v>37.52000000000002</v>
@@ -27478,7 +27500,7 @@
         <v>72.40000000000019</v>
       </c>
       <c r="K532" t="n">
-        <v>-19.23076923076912</v>
+        <v>3.448275862068991</v>
       </c>
       <c r="L532" t="n">
         <v>37.48000000000001</v>
@@ -27529,7 +27551,7 @@
         <v>72.60000000000019</v>
       </c>
       <c r="K533" t="n">
-        <v>-9.803921568627381</v>
+        <v>-7.692307692307461</v>
       </c>
       <c r="L533" t="n">
         <v>37.51000000000001</v>
@@ -27580,7 +27602,7 @@
         <v>73.0000000000002</v>
       </c>
       <c r="K534" t="n">
-        <v>-16.36363636363621</v>
+        <v>-7.692307692307461</v>
       </c>
       <c r="L534" t="n">
         <v>37.45000000000001</v>
@@ -27631,7 +27653,7 @@
         <v>73.10000000000019</v>
       </c>
       <c r="K535" t="n">
-        <v>-19.99999999999992</v>
+        <v>-7.692307692307461</v>
       </c>
       <c r="L535" t="n">
         <v>37.42000000000002</v>
@@ -27682,7 +27704,7 @@
         <v>73.40000000000019</v>
       </c>
       <c r="K536" t="n">
-        <v>-12.28070175438595</v>
+        <v>7.142857142856926</v>
       </c>
       <c r="L536" t="n">
         <v>37.43000000000001</v>
@@ -27733,7 +27755,7 @@
         <v>73.60000000000019</v>
       </c>
       <c r="K537" t="n">
-        <v>-3.571428571428481</v>
+        <v>0</v>
       </c>
       <c r="L537" t="n">
         <v>37.47000000000001</v>
@@ -27784,7 +27806,7 @@
         <v>73.9000000000002</v>
       </c>
       <c r="K538" t="n">
-        <v>-14.2857142857143</v>
+        <v>-23.0769230769228</v>
       </c>
       <c r="L538" t="n">
         <v>37.44000000000001</v>
@@ -27835,7 +27857,7 @@
         <v>74.0000000000002</v>
       </c>
       <c r="K539" t="n">
-        <v>-12.72727272727262</v>
+        <v>-4.761904761904439</v>
       </c>
       <c r="L539" t="n">
         <v>37.37000000000002</v>
@@ -27886,7 +27908,7 @@
         <v>74.0000000000002</v>
       </c>
       <c r="K540" t="n">
-        <v>-9.433962264150923</v>
+        <v>-22.222222222222</v>
       </c>
       <c r="L540" t="n">
         <v>37.36000000000001</v>
@@ -27937,7 +27959,7 @@
         <v>74.3000000000002</v>
       </c>
       <c r="K541" t="n">
-        <v>-1.818181818181839</v>
+        <v>5.263157894736901</v>
       </c>
       <c r="L541" t="n">
         <v>37.35000000000001</v>
@@ -27988,7 +28010,7 @@
         <v>74.8000000000002</v>
       </c>
       <c r="K542" t="n">
-        <v>-13.79310344827575</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L542" t="n">
         <v>37.31000000000002</v>
@@ -28039,7 +28061,7 @@
         <v>75.3000000000002</v>
       </c>
       <c r="K543" t="n">
-        <v>3.448275862068999</v>
+        <v>13.04347826086946</v>
       </c>
       <c r="L543" t="n">
         <v>37.30000000000001</v>
@@ -28090,7 +28112,7 @@
         <v>75.8000000000002</v>
       </c>
       <c r="K544" t="n">
-        <v>-13.79310344827575</v>
+        <v>-3.703703703703753</v>
       </c>
       <c r="L544" t="n">
         <v>37.28000000000002</v>
@@ -28141,7 +28163,7 @@
         <v>75.9000000000002</v>
       </c>
       <c r="K545" t="n">
-        <v>-5.454545454545374</v>
+        <v>-11.99999999999982</v>
       </c>
       <c r="L545" t="n">
         <v>37.28000000000002</v>
@@ -28192,7 +28214,7 @@
         <v>75.9000000000002</v>
       </c>
       <c r="K546" t="n">
-        <v>-3.703703703703602</v>
+        <v>-21.7391304347825</v>
       </c>
       <c r="L546" t="n">
         <v>37.25000000000001</v>
@@ -28243,7 +28265,7 @@
         <v>76.0000000000002</v>
       </c>
       <c r="K547" t="n">
-        <v>0</v>
+        <v>-4.761904761904504</v>
       </c>
       <c r="L547" t="n">
         <v>37.21000000000002</v>
@@ -28294,7 +28316,7 @@
         <v>76.0000000000002</v>
       </c>
       <c r="K548" t="n">
-        <v>-7.999999999999926</v>
+        <v>0</v>
       </c>
       <c r="L548" t="n">
         <v>37.20000000000001</v>
@@ -28345,7 +28367,7 @@
         <v>76.0000000000002</v>
       </c>
       <c r="K549" t="n">
-        <v>-14.89361702127641</v>
+        <v>0</v>
       </c>
       <c r="L549" t="n">
         <v>37.20000000000001</v>
@@ -28396,7 +28418,7 @@
         <v>76.0000000000002</v>
       </c>
       <c r="K550" t="n">
-        <v>-2.43902439024375</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L550" t="n">
         <v>37.20000000000001</v>
@@ -28447,7 +28469,7 @@
         <v>76.0000000000002</v>
       </c>
       <c r="K551" t="n">
-        <v>-10.52631578947362</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L551" t="n">
         <v>37.17000000000001</v>
@@ -28498,7 +28520,7 @@
         <v>76.0000000000002</v>
       </c>
       <c r="K552" t="n">
-        <v>-5.555555555555424</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L552" t="n">
         <v>37.19000000000001</v>
@@ -28549,7 +28571,7 @@
         <v>76.0000000000002</v>
       </c>
       <c r="K553" t="n">
-        <v>-11.76470588235288</v>
+        <v>100</v>
       </c>
       <c r="L553" t="n">
         <v>37.16000000000001</v>
@@ -28600,7 +28622,7 @@
         <v>76.4000000000002</v>
       </c>
       <c r="K554" t="n">
-        <v>11.76470588235288</v>
+        <v>100</v>
       </c>
       <c r="L554" t="n">
         <v>37.22000000000001</v>
@@ -28651,7 +28673,7 @@
         <v>76.70000000000022</v>
       </c>
       <c r="K555" t="n">
-        <v>5.555555555555402</v>
+        <v>24.99999999999911</v>
       </c>
       <c r="L555" t="n">
         <v>37.24000000000001</v>
@@ -28702,7 +28724,7 @@
         <v>76.70000000000022</v>
       </c>
       <c r="K556" t="n">
-        <v>-3.03030303030305</v>
+        <v>14.28571428571312</v>
       </c>
       <c r="L556" t="n">
         <v>37.26000000000001</v>
@@ -28753,7 +28775,7 @@
         <v>76.80000000000021</v>
       </c>
       <c r="K557" t="n">
-        <v>-6.250000000000055</v>
+        <v>24.99999999999911</v>
       </c>
       <c r="L557" t="n">
         <v>37.28000000000001</v>
@@ -28804,7 +28826,7 @@
         <v>76.80000000000021</v>
       </c>
       <c r="K558" t="n">
-        <v>3.448275862069008</v>
+        <v>24.99999999999911</v>
       </c>
       <c r="L558" t="n">
         <v>37.3</v>
@@ -28855,7 +28877,7 @@
         <v>76.9000000000002</v>
       </c>
       <c r="K559" t="n">
-        <v>3.448275862068763</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L559" t="n">
         <v>37.31000000000001</v>
@@ -28906,7 +28928,7 @@
         <v>76.9000000000002</v>
       </c>
       <c r="K560" t="n">
-        <v>3.448275862068763</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L560" t="n">
         <v>37.32000000000001</v>
@@ -28957,7 +28979,7 @@
         <v>77.0000000000002</v>
       </c>
       <c r="K561" t="n">
-        <v>-11.11111111111099</v>
+        <v>0</v>
       </c>
       <c r="L561" t="n">
         <v>37.32000000000001</v>
@@ -29008,7 +29030,7 @@
         <v>77.10000000000019</v>
       </c>
       <c r="K562" t="n">
-        <v>13.04347826086946</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L562" t="n">
         <v>37.33000000000001</v>

--- a/BackTest/2019-10-17 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-17 BackTest HDAC.xlsx
@@ -6261,14 +6261,20 @@
         <v>36.93333333333334</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>36.2</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6296,14 +6302,20 @@
         <v>36.92333333333334</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>36.4</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6331,14 +6343,20 @@
         <v>36.90500000000001</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>36.6</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6366,14 +6384,20 @@
         <v>36.89166666666668</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>36.3</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6401,14 +6425,20 @@
         <v>36.87666666666668</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>36.4</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6442,12 +6472,12 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M173" t="n">
@@ -6477,12 +6507,14 @@
         <v>36.84333333333335</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>36.2</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
@@ -6563,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
@@ -6639,14 +6671,12 @@
         <v>36.78166666666669</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
@@ -6680,14 +6710,12 @@
         <v>36.77000000000002</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
@@ -6721,14 +6749,12 @@
         <v>36.75500000000002</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
@@ -6762,14 +6788,12 @@
         <v>36.74000000000002</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
@@ -6803,14 +6827,12 @@
         <v>36.72166666666669</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
@@ -6844,14 +6866,12 @@
         <v>36.70666666666669</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
@@ -6885,14 +6905,12 @@
         <v>36.69166666666669</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
@@ -6926,14 +6944,12 @@
         <v>36.67500000000003</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
@@ -6967,14 +6983,12 @@
         <v>36.66166666666668</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
@@ -7008,14 +7022,12 @@
         <v>36.65166666666669</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
@@ -7049,14 +7061,12 @@
         <v>36.63833333333335</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
@@ -7090,14 +7100,12 @@
         <v>36.62833333333334</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
@@ -7131,14 +7139,12 @@
         <v>36.62500000000001</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>36.7</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
@@ -7523,14 +7529,12 @@
         <v>36.52833333333336</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
@@ -7564,14 +7568,12 @@
         <v>36.52333333333336</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
@@ -7605,14 +7607,12 @@
         <v>36.51833333333337</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
@@ -7646,14 +7646,12 @@
         <v>36.51500000000003</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
@@ -7687,14 +7685,12 @@
         <v>36.5066666666667</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
@@ -7728,14 +7724,12 @@
         <v>36.50166666666669</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
@@ -7769,14 +7763,12 @@
         <v>36.49833333333336</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
@@ -7810,14 +7802,12 @@
         <v>36.4916666666667</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>36.7</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
@@ -7851,14 +7841,12 @@
         <v>36.48833333333337</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
@@ -7892,14 +7880,12 @@
         <v>36.48500000000003</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
@@ -7933,14 +7919,12 @@
         <v>36.47833333333337</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
@@ -7974,14 +7958,12 @@
         <v>36.47500000000004</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
@@ -8015,14 +7997,12 @@
         <v>36.4666666666667</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
@@ -8056,14 +8036,12 @@
         <v>36.45833333333337</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
@@ -8097,14 +8075,12 @@
         <v>36.45000000000004</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
@@ -8138,14 +8114,12 @@
         <v>36.44833333333337</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
@@ -8179,14 +8153,12 @@
         <v>36.44500000000004</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
@@ -8220,14 +8192,12 @@
         <v>36.44500000000004</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
@@ -8261,14 +8231,12 @@
         <v>36.44333333333338</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>36.7</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
@@ -8302,14 +8270,12 @@
         <v>36.44500000000004</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
@@ -8343,14 +8309,12 @@
         <v>36.44666666666671</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
@@ -8384,14 +8348,12 @@
         <v>36.45000000000004</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
@@ -8464,14 +8426,12 @@
         <v>36.45333333333337</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
@@ -10299,14 +10259,12 @@
         <v>36.58999999999993</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
@@ -10340,14 +10298,12 @@
         <v>36.58833333333326</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
@@ -10381,14 +10337,12 @@
         <v>36.58833333333326</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
@@ -10422,14 +10376,12 @@
         <v>36.58499999999993</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
@@ -10463,14 +10415,12 @@
         <v>36.58333333333326</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
@@ -10504,14 +10454,12 @@
         <v>36.58333333333326</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
@@ -10545,14 +10493,12 @@
         <v>36.5816666666666</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
@@ -10586,14 +10532,12 @@
         <v>36.57833333333327</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
@@ -10627,14 +10571,12 @@
         <v>36.57333333333327</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
@@ -10668,14 +10610,12 @@
         <v>36.56833333333328</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
@@ -10709,14 +10649,12 @@
         <v>36.56333333333328</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
@@ -10750,14 +10688,12 @@
         <v>36.56166666666662</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
@@ -10791,14 +10727,12 @@
         <v>36.55666666666662</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
@@ -10832,14 +10766,12 @@
         <v>36.54999999999995</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
@@ -10873,14 +10805,12 @@
         <v>36.54666666666662</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
@@ -11031,14 +10961,12 @@
         <v>36.50666666666664</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>36</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
@@ -11072,14 +11000,12 @@
         <v>36.49499999999998</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
@@ -11113,14 +11039,12 @@
         <v>36.48333333333331</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>36</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
@@ -11154,14 +11078,12 @@
         <v>36.47166666666665</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>36</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
@@ -11195,14 +11117,12 @@
         <v>36.45999999999999</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>36</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
@@ -11236,14 +11156,12 @@
         <v>36.45499999999998</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
@@ -11277,14 +11195,12 @@
         <v>36.44666666666664</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
@@ -11318,14 +11234,12 @@
         <v>36.44166666666664</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
@@ -11359,14 +11273,12 @@
         <v>36.43333333333331</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
@@ -11400,14 +11312,12 @@
         <v>36.42499999999998</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
@@ -11441,14 +11351,12 @@
         <v>36.41833333333332</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
@@ -11482,14 +11390,12 @@
         <v>36.41499999999998</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
@@ -11523,14 +11429,12 @@
         <v>36.41499999999998</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
@@ -11564,14 +11468,12 @@
         <v>36.41166666666665</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
@@ -11605,14 +11507,12 @@
         <v>36.40999999999999</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
@@ -11646,14 +11546,12 @@
         <v>36.41499999999999</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>36.8</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
@@ -11687,14 +11585,12 @@
         <v>36.41666666666666</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>36.8</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
@@ -11728,14 +11624,12 @@
         <v>36.41833333333333</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
@@ -11964,14 +11858,12 @@
         <v>36.40833333333334</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
@@ -12005,14 +11897,12 @@
         <v>36.40666666666667</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
@@ -18991,18 +18881,16 @@
         <v>0</v>
       </c>
       <c r="I491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
       <c r="L491" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M491" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -19030,15 +18918,11 @@
         <v>0</v>
       </c>
       <c r="I492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L492" t="inlineStr"/>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -19069,16 +18953,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M493" t="inlineStr"/>
+      <c r="L493" t="inlineStr"/>
+      <c r="M493" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -19106,7 +18988,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
@@ -19141,7 +19023,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
@@ -19246,7 +19128,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
@@ -19281,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
@@ -19421,7 +19303,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
@@ -19456,7 +19338,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
@@ -19561,7 +19443,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
@@ -19701,7 +19583,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
@@ -19806,7 +19688,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
@@ -19841,7 +19723,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>

--- a/BackTest/2019-10-17 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-17 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1507,7 +1507,7 @@
         <v>3032334.040596269</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>3140891.935957599</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>3452609.364357599</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>3793753.499210239</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>4012439.775957599</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>3770412.245271459</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>3770412.245271459</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>3770412.245271459</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>3770412.245271459</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>3647500.250671459</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>3869766.686671459</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>3869766.686671459</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>3862004.226071459</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>3862004.226071459</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>3878188.805471459</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>3872847.19357146</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>3872847.19357146</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>3912305.400571459</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>3791413.097671459</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>3791413.097671459</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>3791413.097671459</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>3778630.27577146</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>3643909.21677146</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>3597139.53477146</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>3540697.683171459</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>3540737.39667146</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>3540737.39667146</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>3556912.546171459</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>3556912.546171459</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>3575331.664871459</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>3575331.664871459</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3290148.62927146</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3301304.53157146</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>3301304.53157146</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>3299968.17577146</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>3299434.27187146</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>3262078.25757146</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>3262078.25757146</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>3246760.68007146</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>3204117.59727146</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>3223097.92017146</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>3245813.52127146</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>3245863.52127146</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>3235863.52127146</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>3235863.52127146</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>3236765.65927146</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>3259436.03271927</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>3207629.83361927</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>3160780.06551927</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>3131750.64041927</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>2989272.01571927</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>2990175.74141927</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>2991577.74141927</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>2972292.998119269</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -9460,17 +9460,11 @@
         <v>3304345.294495709</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9499,17 +9493,11 @@
         <v>3319935.764595709</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9538,17 +9526,11 @@
         <v>3319935.764595709</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9577,17 +9559,11 @@
         <v>3325144.493395709</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9616,17 +9592,11 @@
         <v>3325144.493395709</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="n">
-        <v>36.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9659,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9692,17 +9658,11 @@
         <v>3301363.980595709</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9735,11 +9695,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9768,17 +9724,11 @@
         <v>3295857.267295709</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9811,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9848,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9885,11 +9827,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +9860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9959,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9996,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10033,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10070,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10107,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10144,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10181,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10218,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10255,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10292,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10329,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10366,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10403,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10440,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10477,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10514,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10551,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10584,17 +10450,11 @@
         <v>3077551.850295709</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10623,17 +10483,11 @@
         <v>3077561.850295709</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
-      </c>
-      <c r="I306" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10666,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10703,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10740,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10777,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10814,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10851,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10888,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10925,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10962,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10999,11 +10817,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11036,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11073,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11147,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11184,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11221,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11258,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11295,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11332,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11369,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11406,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11443,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11480,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11517,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11554,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11591,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11628,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11665,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11702,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11739,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11776,11 +11510,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11813,11 +11543,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11850,11 +11576,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11887,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11924,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11961,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11998,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12035,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12072,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12109,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12146,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12183,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12220,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12257,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12290,17 +11968,15 @@
         <v>1524686.647108029</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>36</v>
       </c>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="n">
+        <v>36</v>
+      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12329,15 +12005,17 @@
         <v>1524724.647108029</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>36</v>
       </c>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>36</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L352" t="n">
@@ -12368,15 +12046,17 @@
         <v>1524724.647108029</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>36.2</v>
       </c>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>36</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L353" t="n">
@@ -12407,15 +12087,17 @@
         <v>1524724.647108029</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>36.2</v>
       </c>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>36</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L354" t="n">
@@ -12446,12 +12128,14 @@
         <v>1524724.647108029</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>36.2</v>
       </c>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>36</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12485,10 +12169,14 @@
         <v>1524724.647108029</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="J356" t="n">
+        <v>36</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12522,10 +12210,14 @@
         <v>1529355.614008029</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="J357" t="n">
+        <v>36</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12559,12 +12251,14 @@
         <v>1538440.509708029</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>36.3</v>
       </c>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>36</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12598,12 +12292,14 @@
         <v>1579468.441695709</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>36.4</v>
       </c>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>36</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12637,12 +12333,12 @@
         <v>1579468.441695709</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J360" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>36</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12676,12 +12372,12 @@
         <v>1605185.961895709</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>36</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12718,7 +12414,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>36</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12755,7 +12453,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>36</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12792,7 +12492,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>36</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12829,7 +12531,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>36</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12866,7 +12570,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>36</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12903,7 +12609,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>36</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12940,7 +12648,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>36</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12977,7 +12687,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>36</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13014,7 +12726,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>36</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13051,7 +12765,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>36</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13088,7 +12804,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>36</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13125,7 +12843,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>36</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13162,7 +12882,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>36</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13199,7 +12921,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>36</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13236,7 +12960,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>36</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13273,7 +12999,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>36</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13310,7 +13038,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>36</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13344,10 +13074,14 @@
         <v>1664125.404795709</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J379" t="n">
+        <v>36</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13384,7 +13118,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>36</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13421,7 +13157,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>36</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13458,7 +13196,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>36</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13495,7 +13235,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>36</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13532,7 +13274,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>36</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13569,7 +13313,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>36</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13606,7 +13352,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>36</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13643,7 +13391,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>36</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13680,7 +13430,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>36</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13717,7 +13469,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>36</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13754,7 +13508,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>36</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13791,7 +13547,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>36</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13828,7 +13586,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>36</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13865,7 +13625,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>36</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13902,7 +13664,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>36</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13939,7 +13703,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>36</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13976,7 +13742,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>36</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14013,7 +13781,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>36</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14050,7 +13820,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>36</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14087,7 +13859,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>36</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14124,7 +13898,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>36</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14161,7 +13937,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>36</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14198,7 +13976,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>36</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14235,7 +14015,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>36</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14272,7 +14054,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>36</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14309,7 +14093,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>36</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14346,7 +14132,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>36</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14383,7 +14171,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>36</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14420,7 +14210,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>36</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14457,7 +14249,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>36</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14494,7 +14288,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>36</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14531,7 +14327,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>36</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14568,7 +14366,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>36</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14605,7 +14405,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>36</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14642,7 +14444,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>36</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14679,7 +14483,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>36</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14716,7 +14522,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>36</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14753,7 +14561,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>36</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14790,7 +14600,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>36</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14827,7 +14639,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>36</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14864,7 +14678,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>36</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14901,7 +14717,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>36</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14938,7 +14756,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>36</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14975,7 +14795,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>36</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15012,7 +14834,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>36</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15049,7 +14873,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>36</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15086,7 +14912,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>36</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15123,7 +14951,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>36</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15160,7 +14990,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>36</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15197,7 +15029,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>36</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15234,7 +15068,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>36</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15271,7 +15107,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>36</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15308,7 +15146,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>36</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15345,7 +15185,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>36</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15382,7 +15224,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>36</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15419,7 +15263,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>36</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15456,7 +15302,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>36</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15493,7 +15341,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>36</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15530,7 +15380,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>36</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15567,7 +15419,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>36</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15604,7 +15458,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>36</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15641,7 +15497,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>36</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15678,7 +15536,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>36</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15715,7 +15575,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>36</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15752,7 +15614,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>36</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15789,7 +15653,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>36</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15826,7 +15692,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>36</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15863,7 +15731,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>36</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15900,7 +15770,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>36</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15937,7 +15809,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>36</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15974,7 +15848,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>36</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16011,7 +15887,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>36</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16048,7 +15926,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>36</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16085,7 +15965,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>36</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16122,7 +16004,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>36</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16159,7 +16043,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>36</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16196,7 +16082,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>36</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16233,7 +16121,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>36</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16270,7 +16160,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>36</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16307,7 +16199,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>36</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16344,7 +16238,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>36</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16381,7 +16277,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>36</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16418,7 +16316,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>36</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16455,7 +16355,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>36</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16492,7 +16394,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>36</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16529,7 +16433,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>36</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16566,7 +16472,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>36</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16603,7 +16511,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>36</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16640,7 +16550,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>36</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16677,7 +16589,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>36</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16714,7 +16628,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>36</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16751,7 +16667,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>36</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16788,7 +16706,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>36</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16825,7 +16745,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>36</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16862,7 +16784,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>36</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16899,7 +16823,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>36</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16936,7 +16862,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>36</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16973,7 +16901,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>36</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17010,7 +16940,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>36</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17047,7 +16979,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>36</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17084,7 +17018,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>36</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17121,7 +17057,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>36</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17158,7 +17096,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>36</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17195,7 +17135,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>36</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17232,7 +17174,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>36</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17269,7 +17213,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>36</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17306,7 +17252,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>36</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17343,7 +17291,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>36</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17380,7 +17330,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>36</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17417,7 +17369,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>36</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17454,7 +17408,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>36</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17491,7 +17447,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>36</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17528,7 +17486,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>36</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17565,7 +17525,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>36</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17602,7 +17564,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>36</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17639,7 +17603,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>36</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17676,7 +17642,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>36</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17713,7 +17681,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>36</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17750,7 +17720,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>36</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17787,7 +17759,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>36</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17824,7 +17798,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>36</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17861,7 +17837,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>36</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17898,7 +17876,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>36</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17935,7 +17915,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>36</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17972,7 +17954,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>36</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18009,7 +17993,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>36</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18046,7 +18032,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>36</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18083,7 +18071,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>36</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18120,7 +18110,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>36</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18157,7 +18149,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>36</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18194,7 +18188,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>36</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18231,7 +18227,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>36</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18268,7 +18266,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>36</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18305,7 +18305,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>36</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18342,7 +18344,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>36</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18379,7 +18383,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>36</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18416,7 +18422,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>36</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18453,7 +18461,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>36</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18490,7 +18500,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>36</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18527,7 +18539,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>36</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18564,7 +18578,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>36</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18601,7 +18617,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>36</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18638,7 +18656,9 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>36</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18675,7 +18695,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>36</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18712,7 +18734,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>36</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18749,7 +18773,9 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>36</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18786,7 +18812,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>36</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18823,7 +18851,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>36</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18860,7 +18890,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>36</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18897,7 +18929,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>36</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18934,7 +18968,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>36</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18971,7 +19007,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>36</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19008,7 +19046,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>36</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19045,7 +19085,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>36</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19082,7 +19124,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>36</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19119,7 +19163,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>36</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19156,7 +19202,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>36</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19193,7 +19241,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>36</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19230,7 +19280,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>36</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19267,7 +19319,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>36</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19304,7 +19358,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>36</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19341,7 +19397,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>36</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19378,7 +19436,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>36</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19415,7 +19475,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>36</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19452,7 +19514,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>36</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19489,7 +19553,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>36</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19526,7 +19592,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>36</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19563,7 +19631,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>36</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19600,7 +19670,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>36</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19637,7 +19709,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>36</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19674,7 +19748,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>36</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19711,7 +19787,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>36</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19748,7 +19826,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>36</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19785,7 +19865,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>36</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19822,7 +19904,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>36</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19859,7 +19943,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>36</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19896,7 +19982,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>36</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19933,7 +20021,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>36</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19970,7 +20060,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>36</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20007,7 +20099,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>36</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20044,7 +20138,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>36</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20081,7 +20177,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>36</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20118,7 +20216,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>36</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20155,7 +20255,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>36</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20192,7 +20294,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>36</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20229,7 +20333,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>36</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20266,7 +20372,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>36</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20303,7 +20411,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>36</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20340,7 +20450,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>36</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20377,7 +20489,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>36</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20414,7 +20528,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>36</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20451,7 +20567,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>36</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20488,7 +20606,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>36</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20525,7 +20645,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>36</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20562,7 +20684,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>36</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20599,7 +20723,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>36</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20636,7 +20762,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>36</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20673,7 +20801,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>36</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20710,7 +20840,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>36</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20747,7 +20879,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>36</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20784,7 +20918,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>36</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20821,7 +20957,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>36</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20858,7 +20996,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>36</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20895,7 +21035,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>36</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20932,7 +21074,9 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>36</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20969,7 +21113,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>36</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21006,7 +21152,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>36</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21043,7 +21191,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>36</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21080,7 +21230,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>36</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21117,7 +21269,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>36</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21154,7 +21308,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>36</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21191,7 +21347,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>36</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21228,7 +21386,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>36</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21265,7 +21425,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>36</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21302,7 +21464,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>36</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21339,7 +21503,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>36</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21376,7 +21542,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>36</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21413,7 +21581,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>36</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21450,7 +21620,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>36</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21487,7 +21659,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>36</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21524,7 +21698,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>36</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21561,7 +21737,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>36</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21598,7 +21776,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>36</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21635,7 +21815,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>36</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21672,7 +21854,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>36</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21709,7 +21893,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>36</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21746,7 +21932,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>36</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21783,7 +21971,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>36</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21820,7 +22010,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>36</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21857,7 +22049,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>36</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21894,7 +22088,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>36</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21906,6 +22102,6 @@
       <c r="M610" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-17 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>2174660.606413929</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2182915.089113929</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2182915.089113929</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2263799.307113929</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>2253646.505113929</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2231849.958713929</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2163884.893113929</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2163884.893113929</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2163884.893113929</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2213894.919613929</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2213894.919613929</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2221842.08891551</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2221842.08891551</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2221842.08891551</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2233145.38621551</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2455781.74558044</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2562364.15658044</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>3024228.09185882</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>3869766.686671459</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>3869766.686671459</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>3878188.805471459</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>3872847.19357146</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>3872847.19357146</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>3912305.400571459</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>3791413.097671459</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>3791413.097671459</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>3791413.097671459</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>3778630.27577146</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>3643909.21677146</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>3597139.53477146</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>3540697.683171459</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>3540737.39667146</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>3540737.39667146</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>3556912.546171459</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>3556912.546171459</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>3575331.664871459</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>3575331.664871459</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3290148.62927146</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3301304.53157146</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>3301304.53157146</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>3299968.17577146</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>3299434.27187146</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>3262078.25757146</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>3262078.25757146</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>3246760.68007146</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>3204117.59727146</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>3223097.92017146</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>3245813.52127146</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>3245863.52127146</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>3235863.52127146</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>3235863.52127146</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>3236765.65927146</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>3259436.03271927</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>3207629.83361927</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>3160780.06551927</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>3131750.64041927</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>2989272.01571927</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>2990175.74141927</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>2991577.74141927</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>2972292.998119269</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -7744,11 +7744,17 @@
         <v>2453597.931195709</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>36.4</v>
+      </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +7787,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7820,17 @@
         <v>2519531.94829571</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>36.3</v>
+      </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +7859,17 @@
         <v>2414213.61669571</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +7898,17 @@
         <v>2512134.96229571</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>36.2</v>
+      </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +7937,17 @@
         <v>2556412.93039571</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>36.4</v>
+      </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +7976,17 @@
         <v>2499476.16499571</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8015,17 @@
         <v>2523497.27589571</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>36.3</v>
+      </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +8054,17 @@
         <v>2523507.27589571</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>36.4</v>
+      </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8093,17 @@
         <v>2468372.79659571</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +8132,17 @@
         <v>2468372.79659571</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>36.2</v>
+      </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +8171,17 @@
         <v>2468372.79659571</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>36.2</v>
+      </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8210,17 @@
         <v>2472408.50039571</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>36.2</v>
+      </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8249,17 @@
         <v>2481116.28269571</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>36.3</v>
+      </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8288,17 @@
         <v>2448458.31639571</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8327,17 @@
         <v>2468014.42549571</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>36.3</v>
+      </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8366,17 @@
         <v>2468014.42549571</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8405,17 @@
         <v>2468014.42549571</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8444,17 @@
         <v>2464612.67429571</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8483,17 @@
         <v>2464622.67429571</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>36.3</v>
+      </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8522,17 @@
         <v>2456935.98709571</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8561,17 @@
         <v>2453175.72619571</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>36.4</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8600,17 @@
         <v>2453295.42479571</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>36.3</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8639,17 @@
         <v>2453295.42479571</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8678,17 @@
         <v>2453295.42479571</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8717,17 @@
         <v>3062921.46429571</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +8760,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8639,7 +8797,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +8834,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +8871,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +8908,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +8945,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +8982,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +9019,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9056,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9093,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9130,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9167,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9204,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9241,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9278,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9315,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9352,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +9389,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +9426,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9463,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9500,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +9537,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +9574,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +9611,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +9648,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +9685,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +9722,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +9759,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +9796,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +9833,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +9870,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +9907,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9662,7 +9944,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9695,7 +9981,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9728,7 +10018,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +10055,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9794,7 +10092,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9827,7 +10129,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9860,7 +10166,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9893,7 +10203,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9926,7 +10240,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +10277,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +10314,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +10351,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +10388,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +10425,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +10462,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10499,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +10536,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +10573,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +10610,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +10647,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +10684,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10355,7 +10721,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10388,7 +10758,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10421,7 +10795,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +10832,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +10869,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +10906,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +10943,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +10980,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +11017,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +11054,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +11091,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +11128,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +11165,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +11202,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +11239,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +11276,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +11313,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11350,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +11387,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11424,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11461,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11498,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11535,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11572,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +11609,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +11646,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11683,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11720,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11757,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +11794,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +11831,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11868,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +11905,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +11942,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +11979,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +12016,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +12053,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +12090,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +12127,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +12164,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +12201,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +12238,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +12275,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +12312,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +12349,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +12386,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +12423,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +12460,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +12497,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,15 +12530,15 @@
         <v>1524686.647108029</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>36</v>
-      </c>
-      <c r="J351" t="n">
-        <v>36</v>
-      </c>
-      <c r="K351" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12010,12 +12572,10 @@
       <c r="I352" t="n">
         <v>36</v>
       </c>
-      <c r="J352" t="n">
-        <v>36</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L352" t="n">
@@ -12051,12 +12611,10 @@
       <c r="I353" t="n">
         <v>36.2</v>
       </c>
-      <c r="J353" t="n">
-        <v>36</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L353" t="n">
@@ -12087,17 +12645,13 @@
         <v>1524724.647108029</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="J354" t="n">
-        <v>36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L354" t="n">
@@ -12133,9 +12687,7 @@
       <c r="I355" t="n">
         <v>36.2</v>
       </c>
-      <c r="J355" t="n">
-        <v>36</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12174,9 +12726,7 @@
       <c r="I356" t="n">
         <v>36.2</v>
       </c>
-      <c r="J356" t="n">
-        <v>36</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12215,9 +12765,7 @@
       <c r="I357" t="n">
         <v>36.2</v>
       </c>
-      <c r="J357" t="n">
-        <v>36</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12256,9 +12804,7 @@
       <c r="I358" t="n">
         <v>36.3</v>
       </c>
-      <c r="J358" t="n">
-        <v>36</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12297,9 +12843,7 @@
       <c r="I359" t="n">
         <v>36.4</v>
       </c>
-      <c r="J359" t="n">
-        <v>36</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12336,9 +12880,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>36</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12375,9 +12917,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>36</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12414,9 +12954,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>36</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12453,9 +12991,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>36</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12492,9 +13028,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>36</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12531,9 +13065,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>36</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12570,9 +13102,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>36</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12609,9 +13139,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>36</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12648,9 +13176,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>36</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12687,9 +13213,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>36</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12726,9 +13250,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>36</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12765,9 +13287,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>36</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12804,9 +13324,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>36</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12843,9 +13361,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>36</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12882,9 +13398,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>36</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12921,9 +13435,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>36</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12960,9 +13472,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>36</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12999,9 +13509,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>36</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13038,9 +13546,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>36</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13074,14 +13580,10 @@
         <v>1664125.404795709</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="J379" t="n">
-        <v>36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13118,9 +13620,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>36</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13154,12 +13654,12 @@
         <v>1664115.404795709</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13193,12 +13693,12 @@
         <v>1664115.404795709</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13232,12 +13732,12 @@
         <v>1664115.404795709</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13271,12 +13771,12 @@
         <v>1664115.404795709</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13310,12 +13810,12 @@
         <v>1861745.050595709</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13352,9 +13852,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>36</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13391,9 +13889,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>36</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13430,9 +13926,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>36</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13469,9 +13963,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>36</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13508,9 +14000,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>36</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13547,9 +14037,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>36</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13586,9 +14074,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>36</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13625,9 +14111,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>36</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13664,9 +14148,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>36</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13703,9 +14185,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>36</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13742,9 +14222,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>36</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13778,12 +14256,12 @@
         <v>1863947.582395709</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13820,9 +14298,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>36</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13859,9 +14335,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>36</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13898,9 +14372,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>36</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13937,9 +14409,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>36</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13976,9 +14446,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>36</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14015,9 +14483,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>36</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14054,9 +14520,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>36</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14093,9 +14557,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>36</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14132,9 +14594,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>36</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14171,9 +14631,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>36</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14210,9 +14668,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>36</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14249,9 +14705,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>36</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14288,9 +14742,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>36</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14327,9 +14779,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>36</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14366,9 +14816,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>36</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14405,9 +14853,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>36</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14444,9 +14890,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>36</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14483,9 +14927,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>36</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14522,9 +14964,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>36</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14561,9 +15001,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>36</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14600,9 +15038,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>36</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14639,9 +15075,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>36</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14675,12 +15109,12 @@
         <v>1893944.510995709</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14714,12 +15148,12 @@
         <v>1884541.545295709</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14753,12 +15187,12 @@
         <v>1895736.545295709</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14792,12 +15226,12 @@
         <v>1895736.545295709</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14831,12 +15265,12 @@
         <v>1895736.545295709</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14870,12 +15304,12 @@
         <v>1945757.545295709</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14909,12 +15343,12 @@
         <v>1945569.545295709</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>37</v>
+      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14948,12 +15382,12 @@
         <v>1949991.287595709</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14987,12 +15421,12 @@
         <v>1949911.287595709</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15029,9 +15463,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>36</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15068,9 +15500,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>36</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15107,9 +15537,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>36</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15146,9 +15574,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>36</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15185,9 +15611,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>36</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15224,9 +15648,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>36</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15263,9 +15685,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>36</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15302,9 +15722,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>36</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15341,9 +15759,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>36</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15380,9 +15796,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>36</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15419,9 +15833,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>36</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15458,9 +15870,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>36</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15497,9 +15907,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>36</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15536,9 +15944,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>36</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15575,9 +15981,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>36</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15614,9 +16018,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>36</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15653,9 +16055,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>36</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15692,9 +16092,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>36</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15731,9 +16129,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>36</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15770,9 +16166,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>36</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15809,9 +16203,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>36</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15848,9 +16240,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>36</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15887,9 +16277,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>36</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15926,9 +16314,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>36</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15965,9 +16351,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>36</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16004,9 +16388,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>36</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16043,9 +16425,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>36</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16082,9 +16462,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>36</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16121,9 +16499,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>36</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16160,9 +16536,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>36</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16199,9 +16573,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>36</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16238,9 +16610,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>36</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16277,9 +16647,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>36</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16316,9 +16684,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>36</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16355,9 +16721,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>36</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16394,9 +16758,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>36</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16430,12 +16792,12 @@
         <v>1899305.585395709</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16469,12 +16831,12 @@
         <v>1900305.585395709</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16508,12 +16870,12 @@
         <v>1900305.585395709</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16547,12 +16909,12 @@
         <v>1899519.606595709</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16586,12 +16948,12 @@
         <v>1903209.357095709</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16628,9 +16990,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>36</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16667,9 +17027,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>36</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16703,12 +17061,12 @@
         <v>1823662.218674319</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16742,12 +17100,12 @@
         <v>1823672.218674319</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16784,9 +17142,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>36</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16823,9 +17179,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>36</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16862,9 +17216,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>36</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16901,9 +17253,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>36</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16940,9 +17290,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>36</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16979,9 +17327,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>36</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17018,9 +17364,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>36</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17057,9 +17401,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>36</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17096,9 +17438,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>36</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17135,9 +17475,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>36</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17171,12 +17509,12 @@
         <v>1686861.183274319</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17210,12 +17548,12 @@
         <v>1666861.183274319</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17249,12 +17587,12 @@
         <v>1666861.183274319</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17288,12 +17626,12 @@
         <v>1666871.183274319</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17327,12 +17665,12 @@
         <v>1656872.526074319</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17366,12 +17704,12 @@
         <v>1656882.526074319</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17405,12 +17743,12 @@
         <v>1654382.526074319</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17444,12 +17782,12 @@
         <v>1654392.526074319</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17483,12 +17821,12 @@
         <v>1653789.089774319</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17522,12 +17860,12 @@
         <v>2455119.659856419</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17564,9 +17902,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>36</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17603,9 +17939,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>36</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17642,9 +17976,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>36</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17681,9 +18013,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>36</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17720,9 +18050,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>36</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17759,9 +18087,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>36</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17798,9 +18124,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>36</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17837,9 +18161,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>36</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17876,9 +18198,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>36</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17915,9 +18235,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>36</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17954,9 +18272,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>36</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17993,9 +18309,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>36</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18032,9 +18346,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>36</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18071,9 +18383,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>36</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18110,9 +18420,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>36</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18149,9 +18457,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>36</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18188,9 +18494,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>36</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18227,9 +18531,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>36</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18266,9 +18568,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>36</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18305,9 +18605,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>36</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18344,9 +18642,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>36</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18383,9 +18679,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>36</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18422,9 +18716,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>36</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18461,9 +18753,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>36</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18500,9 +18790,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>36</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18539,9 +18827,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>36</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18578,9 +18864,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>36</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18617,9 +18901,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>36</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18656,9 +18938,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>36</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18695,9 +18975,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>36</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18734,9 +19012,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>36</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18773,9 +19049,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>36</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18812,9 +19086,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>36</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18851,9 +19123,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>36</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18890,9 +19160,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>36</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18929,9 +19197,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>36</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18968,9 +19234,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>36</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19007,9 +19271,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>36</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19046,9 +19308,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>36</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19085,9 +19345,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>36</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19124,9 +19382,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>36</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19163,9 +19419,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>36</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19202,9 +19456,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>36</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19241,9 +19493,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>36</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19280,9 +19530,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>36</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19319,9 +19567,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>36</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19358,9 +19604,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>36</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19397,9 +19641,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>36</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19436,9 +19678,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>36</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19475,9 +19715,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>36</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19514,9 +19752,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>36</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19553,9 +19789,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>36</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19592,9 +19826,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>36</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19631,9 +19863,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>36</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19670,9 +19900,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>36</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19706,20 +19934,16 @@
         <v>3176925.812756419</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>36</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L549" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L549" t="inlineStr"/>
       <c r="M549" t="inlineStr"/>
     </row>
     <row r="550">
@@ -19745,17 +19969,11 @@
         <v>3174571.479856419</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>36</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19784,17 +20002,11 @@
         <v>3048991.810256419</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>36</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19823,17 +20035,11 @@
         <v>2961950.602256419</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>36</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19862,17 +20068,11 @@
         <v>2961975.602256419</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>36</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19901,17 +20101,11 @@
         <v>2961932.602256419</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>36</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19943,14 +20137,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>36</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19979,17 +20167,11 @@
         <v>2973876.170702129</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>36</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20018,17 +20200,11 @@
         <v>2973876.170702129</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>36</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20057,17 +20233,11 @@
         <v>3108625.396102129</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>36</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20099,14 +20269,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>36</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20138,14 +20302,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>36</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20177,14 +20335,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>36</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20213,17 +20365,11 @@
         <v>3108610.396102129</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>36</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20252,17 +20398,11 @@
         <v>3026838.125202129</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>36</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20294,14 +20434,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>36</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20333,14 +20467,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>36</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20369,17 +20497,11 @@
         <v>3039821.643702128</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>36</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20408,17 +20530,11 @@
         <v>3081445.596120558</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>36</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20447,17 +20563,11 @@
         <v>3076822.132820558</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>36</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20486,17 +20596,11 @@
         <v>3076822.132820558</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>36</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20525,17 +20629,11 @@
         <v>3076822.132820558</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>36</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20564,17 +20662,11 @@
         <v>3132434.405120558</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>36</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20603,17 +20695,11 @@
         <v>3131952.405120558</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>36</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20642,17 +20728,11 @@
         <v>3131952.405120558</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>36</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20681,17 +20761,11 @@
         <v>3164594.833320558</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>36</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20720,17 +20794,11 @@
         <v>3059490.833320558</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>36</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20759,17 +20827,11 @@
         <v>2993899.759320558</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>36</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20798,17 +20860,11 @@
         <v>2994398.759320558</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>36</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20837,17 +20893,11 @@
         <v>2970254.982420558</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>36</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20876,17 +20926,11 @@
         <v>2960689.034920558</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>36</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20915,17 +20959,11 @@
         <v>2939248.034920558</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>36</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20954,17 +20992,11 @@
         <v>2954904.365820558</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>36</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20996,14 +21028,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>36</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21035,14 +21061,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>36</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21074,14 +21094,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>36</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21113,14 +21127,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>36</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21152,14 +21160,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>36</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21191,14 +21193,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>36</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21230,14 +21226,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>36</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21269,14 +21259,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>36</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21308,14 +21292,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>36</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21347,14 +21325,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>36</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21386,14 +21358,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>36</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21425,14 +21391,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>36</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21464,14 +21424,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>36</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21503,14 +21457,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>36</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21542,14 +21490,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>36</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21581,14 +21523,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>36</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21620,14 +21556,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>36</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21659,14 +21589,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>36</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21698,14 +21622,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>36</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21737,14 +21655,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>36</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21776,14 +21688,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>36</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21815,14 +21721,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>36</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21854,14 +21754,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>36</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21893,14 +21787,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>36</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21932,14 +21820,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>36</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21971,14 +21853,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>36</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22010,14 +21886,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>36</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22049,14 +21919,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>36</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22088,20 +21952,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>36</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
       <c r="M610" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-17 BackTest HDAC.xlsx
@@ -517,7 +517,7 @@
         <v>2174660.606413929</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2182915.089113929</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2182915.089113929</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2263799.307113929</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>2253646.505113929</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2231849.958713929</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2163884.893113929</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2163884.893113929</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2163884.893113929</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2213894.919613929</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2213894.919613929</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2221842.08891551</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2221842.08891551</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2221842.08891551</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2233145.38621551</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2455781.74558044</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2562364.15658044</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>3024228.09185882</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>3770412.245271459</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>3770412.245271459</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>3770412.245271459</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>3647500.250671459</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>3869766.686671459</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>3869766.686671459</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>3869766.686671459</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>3869766.686671459</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>3862004.226071459</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>3862004.226071459</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>3878188.805471459</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>3872847.19357146</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>3872847.19357146</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>3912305.400571459</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>3912305.400571459</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>3791413.097671459</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>3791413.097671459</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>3791413.097671459</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>3778630.27577146</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>3643909.21677146</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>3597139.53477146</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>3540697.683171459</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>3540737.39667146</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>3540737.39667146</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>3540737.39667146</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>3556912.546171459</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -7744,17 +7744,11 @@
         <v>2453597.931195709</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7787,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7820,17 +7810,11 @@
         <v>2519531.94829571</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>36.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7859,17 +7843,11 @@
         <v>2414213.61669571</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7898,17 +7876,11 @@
         <v>2512134.96229571</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>36.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7937,17 +7909,11 @@
         <v>2556412.93039571</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7976,17 +7942,11 @@
         <v>2499476.16499571</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8015,17 +7975,11 @@
         <v>2523497.27589571</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>36.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8054,17 +8008,11 @@
         <v>2523507.27589571</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8093,17 +8041,11 @@
         <v>2468372.79659571</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8132,17 +8074,11 @@
         <v>2468372.79659571</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>36.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8171,17 +8107,11 @@
         <v>2468372.79659571</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>36.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8210,17 +8140,11 @@
         <v>2472408.50039571</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>36.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8249,17 +8173,11 @@
         <v>2481116.28269571</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>36.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8288,17 +8206,11 @@
         <v>2448458.31639571</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8327,17 +8239,11 @@
         <v>2468014.42549571</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>36.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8366,17 +8272,11 @@
         <v>2468014.42549571</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8405,17 +8305,11 @@
         <v>2468014.42549571</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8444,17 +8338,11 @@
         <v>2464612.67429571</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8483,17 +8371,11 @@
         <v>2464622.67429571</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>36.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8522,17 +8404,11 @@
         <v>2456935.98709571</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8561,17 +8437,11 @@
         <v>2453175.72619571</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8600,17 +8470,11 @@
         <v>2453295.42479571</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>36.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8639,17 +8503,11 @@
         <v>2453295.42479571</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8678,17 +8536,11 @@
         <v>2453295.42479571</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8717,17 +8569,11 @@
         <v>3062921.46429571</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8760,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8797,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8834,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8871,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8908,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8945,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8982,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9019,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9056,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9093,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9167,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9204,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9241,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9278,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9315,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9352,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9389,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9426,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9463,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9500,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9537,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9574,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9611,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9648,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9685,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9722,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9759,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9796,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9833,11 +9563,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9870,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9907,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9944,11 +9662,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9981,11 +9695,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10018,11 +9728,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10055,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10092,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10129,11 +9827,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10166,11 +9860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10203,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10240,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10277,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10314,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10388,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10425,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10462,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10499,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10536,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10573,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10610,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10647,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10684,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10721,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10758,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10795,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10832,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10869,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10906,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10943,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10980,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11017,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11054,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11091,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11128,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11165,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11202,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11239,11 +10817,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11276,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11313,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11350,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11387,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11424,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11461,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11498,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11535,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11609,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11646,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11683,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11720,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11757,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11794,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11831,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11868,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11905,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11942,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11979,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12016,11 +11510,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12053,11 +11543,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12090,11 +11576,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12127,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12164,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12201,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12238,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12275,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12312,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12349,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12386,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12423,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12460,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12497,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12534,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12567,17 +12001,11 @@
         <v>1524724.647108029</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12614,7 +12042,7 @@
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L353" t="n">
@@ -12838,11 +12266,9 @@
         <v>1579468.441695709</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
@@ -13210,9 +12636,11 @@
         <v>1628342.842295709</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -13247,9 +12675,11 @@
         <v>1628342.842295709</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -13284,9 +12714,11 @@
         <v>1628513.842295709</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
@@ -13321,9 +12753,11 @@
         <v>1628493.842295709</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -13358,9 +12792,11 @@
         <v>1628666.807995709</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -13395,9 +12831,11 @@
         <v>1665956.416395709</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -13432,9 +12870,11 @@
         <v>1663995.404795709</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>36.8</v>
+      </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -13469,9 +12909,11 @@
         <v>1663975.404795709</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>36.7</v>
+      </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -13506,9 +12948,11 @@
         <v>1663975.404795709</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -13543,9 +12987,11 @@
         <v>1664125.404795709</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -13580,9 +13026,11 @@
         <v>1664125.404795709</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>36.7</v>
+      </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -13617,9 +13065,11 @@
         <v>1664115.404795709</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>36.7</v>
+      </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -13849,9 +13299,11 @@
         <v>1881767.050595709</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>36.8</v>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -13886,9 +13338,11 @@
         <v>1881038.050595709</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>37</v>
+      </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
@@ -13923,9 +13377,11 @@
         <v>1880961.050595709</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>36.9</v>
+      </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -13960,9 +13416,11 @@
         <v>1881062.050595709</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -13997,9 +13455,11 @@
         <v>1881611.050595709</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>36.8</v>
+      </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
@@ -14034,9 +13494,11 @@
         <v>1881611.050595709</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>36.9</v>
+      </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -14071,9 +13533,11 @@
         <v>1881611.050595709</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>36.9</v>
+      </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
@@ -14108,9 +13572,11 @@
         <v>1881611.050595709</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>36.9</v>
+      </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -14182,9 +13648,11 @@
         <v>1885166.582395709</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>37</v>
+      </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
@@ -14219,9 +13687,11 @@
         <v>1864051.582395709</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>37.2</v>
+      </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -14295,9 +13765,11 @@
         <v>2008740.318195709</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>37</v>
+      </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -14332,9 +13804,11 @@
         <v>2020870.677795709</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>37.2</v>
+      </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -14369,9 +13843,11 @@
         <v>2004251.183295709</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>37.5</v>
+      </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -14406,9 +13882,11 @@
         <v>2020263.147095709</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>37.3</v>
+      </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -14443,9 +13921,11 @@
         <v>1988557.527295709</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>37.6</v>
+      </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -14480,9 +13960,11 @@
         <v>1988557.527295709</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>37.5</v>
+      </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -14517,9 +13999,11 @@
         <v>1988557.527295709</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>37.5</v>
+      </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
@@ -14554,9 +14038,11 @@
         <v>1988557.527295709</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>37.5</v>
+      </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
@@ -14591,9 +14077,11 @@
         <v>1957886.415795709</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>37.5</v>
+      </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
@@ -14628,9 +14116,11 @@
         <v>1899916.772295709</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>37.3</v>
+      </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
@@ -14665,9 +14155,11 @@
         <v>1898528.772295709</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>37</v>
+      </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -14702,9 +14194,11 @@
         <v>1898618.772295709</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>36.9</v>
+      </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -14739,9 +14233,11 @@
         <v>1898618.772295709</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>37</v>
+      </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -15072,9 +14568,11 @@
         <v>1893944.510995709</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>36.9</v>
+      </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
@@ -15109,11 +14607,9 @@
         <v>1893944.510995709</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>36.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -15148,11 +14644,9 @@
         <v>1884541.545295709</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>36.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -15187,11 +14681,9 @@
         <v>1895736.545295709</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>36.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
@@ -15226,11 +14718,9 @@
         <v>1895736.545295709</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>36.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -15265,11 +14755,9 @@
         <v>1895736.545295709</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>36.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
@@ -15304,11 +14792,9 @@
         <v>1945757.545295709</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>36.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
@@ -15343,11 +14829,9 @@
         <v>1945569.545295709</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
@@ -15382,11 +14866,9 @@
         <v>1949991.287595709</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>36.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
@@ -15421,11 +14903,9 @@
         <v>1949911.287595709</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>37.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
@@ -16792,11 +16272,9 @@
         <v>1899305.585395709</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>36.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -16831,11 +16309,9 @@
         <v>1900305.585395709</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -16870,11 +16346,9 @@
         <v>1900305.585395709</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>36.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -16909,11 +16383,9 @@
         <v>1899519.606595709</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>36.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -16948,11 +16420,9 @@
         <v>1903209.357095709</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>36.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -17061,11 +16531,9 @@
         <v>1823662.218674319</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -17100,11 +16568,9 @@
         <v>1823672.218674319</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>36.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -17509,11 +16975,9 @@
         <v>1686861.183274319</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
@@ -17548,11 +17012,9 @@
         <v>1666861.183274319</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>36.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -17587,11 +17049,9 @@
         <v>1666861.183274319</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
@@ -17626,11 +17086,9 @@
         <v>1666871.183274319</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
@@ -17665,11 +17123,9 @@
         <v>1656872.526074319</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>36.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -17704,11 +17160,9 @@
         <v>1656882.526074319</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -17743,11 +17197,9 @@
         <v>1654382.526074319</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>36.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -17782,11 +17234,9 @@
         <v>1654392.526074319</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
@@ -17821,11 +17271,9 @@
         <v>1653789.089774319</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>36.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
@@ -17860,11 +17308,9 @@
         <v>2455119.659856419</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
@@ -19934,16 +19380,18 @@
         <v>3176925.812756419</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L549" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L549" t="n">
+        <v>1</v>
+      </c>
       <c r="M549" t="inlineStr"/>
     </row>
     <row r="550">
@@ -19969,11 +19417,15 @@
         <v>3174571.479856419</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20002,11 +19454,15 @@
         <v>3048991.810256419</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20035,11 +19491,15 @@
         <v>2961950.602256419</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20068,11 +19528,15 @@
         <v>2961975.602256419</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20101,11 +19565,15 @@
         <v>2961932.602256419</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20138,7 +19606,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20167,11 +19639,15 @@
         <v>2973876.170702129</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20200,11 +19676,15 @@
         <v>2973876.170702129</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20233,11 +19713,15 @@
         <v>3108625.396102129</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20270,7 +19754,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20303,7 +19791,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20336,7 +19828,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20365,11 +19861,15 @@
         <v>3108610.396102129</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20398,11 +19898,15 @@
         <v>3026838.125202129</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20435,7 +19939,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20468,7 +19976,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20497,11 +20009,15 @@
         <v>3039821.643702128</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20530,11 +20046,15 @@
         <v>3081445.596120558</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20563,11 +20083,15 @@
         <v>3076822.132820558</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20596,11 +20120,15 @@
         <v>3076822.132820558</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20629,11 +20157,15 @@
         <v>3076822.132820558</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20662,11 +20194,15 @@
         <v>3132434.405120558</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20695,11 +20231,15 @@
         <v>3131952.405120558</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20728,11 +20268,15 @@
         <v>3131952.405120558</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20761,11 +20305,15 @@
         <v>3164594.833320558</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20794,11 +20342,15 @@
         <v>3059490.833320558</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20827,11 +20379,15 @@
         <v>2993899.759320558</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20860,11 +20416,15 @@
         <v>2994398.759320558</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20893,11 +20453,15 @@
         <v>2970254.982420558</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20926,11 +20490,15 @@
         <v>2960689.034920558</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20959,11 +20527,15 @@
         <v>2939248.034920558</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20992,11 +20564,15 @@
         <v>2954904.365820558</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21029,7 +20605,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21062,7 +20642,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21095,7 +20679,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21128,7 +20716,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21161,7 +20753,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21194,7 +20790,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21227,7 +20827,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21260,7 +20864,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21293,7 +20901,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21326,7 +20938,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21359,7 +20975,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21392,7 +21012,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21425,7 +21049,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21458,7 +21086,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21491,7 +21123,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21524,7 +21160,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21557,7 +21197,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21590,7 +21234,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21623,7 +21271,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21656,7 +21308,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21689,7 +21345,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21722,7 +21382,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21755,7 +21419,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21788,7 +21456,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21821,7 +21493,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21854,7 +21530,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21887,7 +21567,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21920,7 +21604,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21953,7 +21641,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
